--- a/DB and Documents/WASHB_DRAFT_MLHECommunity.xlsx
+++ b/DB and Documents/WASHB_DRAFT_MLHECommunity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="376">
   <si>
     <t>SLNo</t>
   </si>
@@ -2929,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5291,8 +5291,8 @@
         <v>161</v>
       </c>
       <c r="G63"/>
-      <c r="H63" t="s">
-        <v>177</v>
+      <c r="H63" s="140" t="s">
+        <v>184</v>
       </c>
       <c r="R63" s="140" t="s">
         <v>42</v>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="V63" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('62', 'qRes1_7Other','frmtext', 'tblMainQues','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7.Refused to continue the interview (mention the reason)','','qDate1Next','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('62', 'qRes1_7Other','frmtext', 'tblMainQues','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7.Refused to continue the interview (mention the reason)','','qStart1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="64" spans="1:22" s="140" customFormat="1" ht="31.5">
@@ -5513,8 +5513,8 @@
         <v>161</v>
       </c>
       <c r="G69"/>
-      <c r="H69" t="s">
-        <v>180</v>
+      <c r="H69" s="140" t="s">
+        <v>185</v>
       </c>
       <c r="R69" s="140" t="s">
         <v>42</v>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="V69" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('68', 'qRes2_7Other','frmtext', 'tblMainQues','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7.Refused to continue the interview (mention the reason)','','qDate2Next','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('68', 'qRes2_7Other','frmtext', 'tblMainQues','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7.Refused to continue the interview (mention the reason)','','qStart2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="70" spans="1:22" s="140" customFormat="1" ht="31.5">
@@ -6166,8 +6166,8 @@
       <c r="B87" t="s">
         <v>198</v>
       </c>
-      <c r="C87" t="s">
-        <v>32</v>
+      <c r="C87" s="140" t="s">
+        <v>131</v>
       </c>
       <c r="D87" t="s">
         <v>45</v>
@@ -6193,7 +6193,7 @@
       <c r="U87" s="140"/>
       <c r="V87" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('86', 'qSup','frmnumeric', 'tblMainQues','সুপারভাইজর আইডি','SUPERVISOR ID','','qField','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('86', 'qSup','frmcombobox', 'tblMainQues','সুপারভাইজর আইডি','SUPERVISOR ID','','qField','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -6203,8 +6203,8 @@
       <c r="B88" t="s">
         <v>199</v>
       </c>
-      <c r="C88" t="s">
-        <v>32</v>
+      <c r="C88" s="140" t="s">
+        <v>131</v>
       </c>
       <c r="D88" t="s">
         <v>45</v>
@@ -6230,7 +6230,7 @@
       <c r="U88" s="140"/>
       <c r="V88" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('87', 'qField','frmnumeric', 'tblMainQues','ফিল্ডএডিটর আইডি ','FIELD EDITOR ID','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('87', 'qField','frmcombobox', 'tblMainQues','ফিল্ডএডিটর আইডি ','FIELD EDITOR ID','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
   </sheetData>
@@ -6243,8 +6243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1305"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="G244" sqref="G244"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6325,7 +6325,7 @@
         <v>167</v>
       </c>
       <c r="G3" s="125" t="str">
-        <f t="shared" ref="G3:G28" si="0">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A3&amp;"','" &amp;B3&amp;"', '" &amp;D3&amp;"','" &amp;C3&amp;"','" &amp;E3&amp;"','"&amp;F3&amp;"');"</f>
+        <f t="shared" ref="G3:G66" si="0">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A3&amp;"','" &amp;B3&amp;"', '" &amp;D3&amp;"','" &amp;C3&amp;"','" &amp;E3&amp;"','"&amp;F3&amp;"');"</f>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('2','qVisit', 'Second visit','২য় ভিজিট','2','qDate2');</v>
       </c>
     </row>
@@ -6369,10 +6369,12 @@
       <c r="E5" s="131">
         <v>1</v>
       </c>
-      <c r="F5" s="131"/>
+      <c r="F5" s="140" t="s">
+        <v>184</v>
+      </c>
       <c r="G5" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('4','qRes1', '1.Complete ','1.m¤ú~Y©','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('4','qRes1', '1.Complete ','1.m¤ú~Y©','1','qStart1');</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="126" customFormat="1" ht="25.5">
@@ -6391,13 +6393,15 @@
       <c r="E6" s="131">
         <v>2</v>
       </c>
-      <c r="F6" s="136"/>
+      <c r="F6" s="140" t="s">
+        <v>184</v>
+      </c>
       <c r="G6" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('5','qRes1', '2.Refused','2.Am¤§Z','2','');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="126" customFormat="1" ht="38.25">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('5','qRes1', '2.Refused','2.Am¤§Z','2','qStart1');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="126" customFormat="1" ht="25.5">
       <c r="A7" s="38">
         <v>6</v>
       </c>
@@ -6437,13 +6441,15 @@
       <c r="E8" s="131">
         <v>4</v>
       </c>
-      <c r="F8" s="131"/>
+      <c r="F8" s="140" t="s">
+        <v>184</v>
+      </c>
       <c r="G8" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('7','qRes1', '4.Incomplete','4.Am¤c~Y© ','4','');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="126" customFormat="1" ht="38.25">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('7','qRes1', '4.Incomplete','4.Am¤c~Y© ','4','qStart1');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="126" customFormat="1" ht="28.5">
       <c r="A9" s="38">
         <v>8</v>
       </c>
@@ -6459,13 +6465,15 @@
       <c r="E9" s="131">
         <v>5</v>
       </c>
-      <c r="F9" s="136"/>
+      <c r="F9" s="140" t="s">
+        <v>184</v>
+      </c>
       <c r="G9" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('8','qRes1', '5.Household destroyed/Nobody lives at the house','5.emZevoxaŸsmcÖvß/Lvwj','5','');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="126" customFormat="1" ht="38.25">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('8','qRes1', '5.Household destroyed/Nobody lives at the house','5.emZevoxaŸsmcÖvß/Lvwj','5','qStart1');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="126" customFormat="1" ht="25.5">
       <c r="A10" s="38">
         <v>9</v>
       </c>
@@ -6487,7 +6495,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('9','qRes1', '6.Respondent absent','6. DËi`vZv Abycw¯’Z','6','');</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="126" customFormat="1" ht="51">
+    <row r="11" spans="1:7" s="126" customFormat="1" ht="31.5">
       <c r="A11" s="38">
         <v>10</v>
       </c>
@@ -6511,7 +6519,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('10','qRes1', '7.Refused to continue the interview (mention the reason)','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7','qRes1_7Other');</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="126" customFormat="1" ht="38.25">
+    <row r="12" spans="1:7" s="126" customFormat="1" ht="25.5">
       <c r="A12" s="38">
         <v>11</v>
       </c>
@@ -6551,10 +6559,12 @@
       <c r="E13" s="131">
         <v>1</v>
       </c>
-      <c r="F13" s="131"/>
+      <c r="F13" s="140" t="s">
+        <v>185</v>
+      </c>
       <c r="G13" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('12','qRes2', '1.Complete ','1.m¤ú~Y©','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('12','qRes2', '1.Complete ','1.m¤ú~Y©','1','qStart2');</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="126" customFormat="1" ht="25.5">
@@ -6573,13 +6583,15 @@
       <c r="E14" s="131">
         <v>2</v>
       </c>
-      <c r="F14" s="136"/>
+      <c r="F14" s="140" t="s">
+        <v>185</v>
+      </c>
       <c r="G14" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('13','qRes2', '2.Refused','2.Am¤§Z','2','');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="126" customFormat="1" ht="38.25">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('13','qRes2', '2.Refused','2.Am¤§Z','2','qStart2');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="126" customFormat="1" ht="25.5">
       <c r="A15" s="38">
         <v>14</v>
       </c>
@@ -6619,13 +6631,15 @@
       <c r="E16" s="131">
         <v>4</v>
       </c>
-      <c r="F16" s="131"/>
+      <c r="F16" s="140" t="s">
+        <v>185</v>
+      </c>
       <c r="G16" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('15','qRes2', '4.Incomplete','4.Am¤c~Y© ','4','');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="126" customFormat="1" ht="38.25">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('15','qRes2', '4.Incomplete','4.Am¤c~Y© ','4','qStart2');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="126" customFormat="1" ht="28.5">
       <c r="A17" s="38">
         <v>16</v>
       </c>
@@ -6647,7 +6661,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('16','qRes2', '5.Household destroyed/Nobody lives at the house','5.emZevoxaŸsmcÖvß/Lvwj','5','');</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="126" customFormat="1" ht="38.25">
+    <row r="18" spans="1:7" s="126" customFormat="1" ht="25.5">
       <c r="A18" s="38">
         <v>17</v>
       </c>
@@ -6669,7 +6683,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('17','qRes2', '6.Respondent absent','6. DËi`vZv Abycw¯’Z','6','');</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="126" customFormat="1" ht="51">
+    <row r="19" spans="1:7" s="126" customFormat="1" ht="28.5">
       <c r="A19" s="38">
         <v>18</v>
       </c>
@@ -6693,7 +6707,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('18','qRes2', '7.Refused to continue the interview (mention the reason)','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7','qRes2_7Other');</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="126" customFormat="1" ht="38.25">
+    <row r="20" spans="1:7" s="126" customFormat="1" ht="25.5">
       <c r="A20" s="38">
         <v>19</v>
       </c>
@@ -6755,15 +6769,13 @@
       <c r="E22" s="131">
         <v>2</v>
       </c>
-      <c r="F22" s="136" t="s">
-        <v>200</v>
-      </c>
+      <c r="F22" s="136"/>
       <c r="G22" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('21','qRes3', '2.Refused','2.Am¤§Z','2','END');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="126" customFormat="1" ht="38.25">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('21','qRes3', '2.Refused','2.Am¤§Z','2','');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="126" customFormat="1" ht="25.5">
       <c r="A23" s="38">
         <v>22</v>
       </c>
@@ -6809,7 +6821,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('23','qRes3', '4.Incomplete','4.Am¤c~Y© ','4','');</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="126" customFormat="1" ht="38.25">
+    <row r="25" spans="1:7" s="126" customFormat="1" ht="28.5">
       <c r="A25" s="38">
         <v>24</v>
       </c>
@@ -6831,7 +6843,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('24','qRes3', '5.Household destroyed/Nobody lives at the house','5.emZevoxaŸsmcÖvß/Lvwj','5','');</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="126" customFormat="1" ht="38.25">
+    <row r="26" spans="1:7" s="126" customFormat="1" ht="25.5">
       <c r="A26" s="38">
         <v>25</v>
       </c>
@@ -6853,7 +6865,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('25','qRes3', '6.Respondent absent','6. DËi`vZv Abycw¯’Z','6','');</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="126" customFormat="1" ht="51">
+    <row r="27" spans="1:7" s="126" customFormat="1" ht="28.5">
       <c r="A27" s="38">
         <v>26</v>
       </c>
@@ -6877,7 +6889,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('26','qRes3', '7.Refused to continue the interview (mention the reason)','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7','qRes3_7Other');</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="126" customFormat="1" ht="38.25">
+    <row r="28" spans="1:7" s="126" customFormat="1" ht="25.5">
       <c r="A28" s="38">
         <v>27</v>
       </c>
@@ -6919,7 +6931,7 @@
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="125" t="str">
-        <f>"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A29&amp;"','" &amp;B29&amp;"', '" &amp;D29&amp;"','" &amp;C29&amp;"','" &amp;E29&amp;"','"&amp;F29&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('28','q103', '1.ISLAM ','1.Bmjvg','1','');</v>
       </c>
     </row>
@@ -6941,7 +6953,7 @@
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="125" t="str">
-        <f t="shared" ref="G30:G93" si="1">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A30&amp;"','" &amp;B30&amp;"', '" &amp;D30&amp;"','" &amp;C30&amp;"','" &amp;E30&amp;"','"&amp;F30&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('29','q103', '2.HINDUISM ','2.wn›`y','2','');</v>
       </c>
     </row>
@@ -6962,7 +6974,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('30','q103', '3.BUDDHISM ','3.†eŠ×','3','');</v>
       </c>
     </row>
@@ -6984,11 +6996,11 @@
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('31','q103', '4.CHRISTIANITY ','4.wLª÷vb','4','');</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="11" customFormat="1" ht="38.25">
+    <row r="33" spans="1:7" s="11" customFormat="1" ht="25.5">
       <c r="A33" s="38">
         <v>32</v>
       </c>
@@ -7008,7 +7020,7 @@
         <v>212</v>
       </c>
       <c r="G33" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('32','q103', '5.OTHER (Specify) ','5.Ab¨vb¨(wbw`©ó K‡i ejyb) ','5','q103Other');</v>
       </c>
     </row>
@@ -7029,7 +7041,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('33','q104', '1.Can read only','1.ïay co‡Z cv‡i','1','');</v>
       </c>
     </row>
@@ -7051,11 +7063,11 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('34','q104', '2.Can write only','2.ïay wjL‡Z cv‡i','2','');</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="11" customFormat="1" ht="38.25">
+    <row r="36" spans="1:7" s="11" customFormat="1" ht="25.5">
       <c r="A36" s="38">
         <v>35</v>
       </c>
@@ -7073,7 +7085,7 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('35','q104', '3.Can read and write','3.wjL‡Z I co‡Z cv‡i','3','');</v>
       </c>
     </row>
@@ -7094,7 +7106,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('36','q104', '4.NONE','4.†KvbwUB cv‡ibv','4','');</v>
       </c>
     </row>
@@ -7115,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('37','q105', '1.YES, SCHOOL','1.nu¨v, ¯‹z‡j','1','');</v>
       </c>
     </row>
@@ -7136,7 +7148,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('38','q105', '2.YES, MADRASHA','2.nu¨v, gv`ªvmv','2','');</v>
       </c>
     </row>
@@ -7158,7 +7170,7 @@
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('39','q105', '3.YES, BOTH','3.nu¨v, Dfq','3','');</v>
       </c>
     </row>
@@ -7182,11 +7194,11 @@
         <v>216</v>
       </c>
       <c r="G41" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('40','q105', '4.NO','4.bv','4','q107');</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="28" customFormat="1" ht="38.25">
+    <row r="42" spans="1:7" s="28" customFormat="1" ht="25.5">
       <c r="A42" s="38">
         <v>41</v>
       </c>
@@ -7206,7 +7218,7 @@
         <v>235</v>
       </c>
       <c r="G42" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('41','q105', '6.OTHERS (SPECIFY)','6.Ab¨vb¨ (wbw`©ó Kiæb)','6','q105Other');</v>
       </c>
     </row>
@@ -7227,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('42','q107', '1.AGRICULTURE ','1.K…wlKvR','1','');</v>
       </c>
     </row>
@@ -7249,7 +7261,7 @@
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('43','q107', '2.RICKSHOW PULLER','2.wi·vIqvjv','2','');</v>
       </c>
     </row>
@@ -7271,11 +7283,11 @@
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('44','q107', '3.MECHANIC','3.†gKvwbK','3','');</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="11" customFormat="1" ht="38.25">
+    <row r="46" spans="1:7" s="11" customFormat="1" ht="25.5">
       <c r="A46" s="38">
         <v>45</v>
       </c>
@@ -7292,7 +7304,7 @@
         <v>4</v>
       </c>
       <c r="G46" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('45','q107', '4.BUS/TRUCK DRIVER','4.evm/ UªvK WªvBfvi','4','');</v>
       </c>
     </row>
@@ -7313,7 +7325,7 @@
         <v>5</v>
       </c>
       <c r="G47" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('46','q107', '5.CNG DRIVER','5.wmGbwR WªvBfvi','5','');</v>
       </c>
     </row>
@@ -7334,7 +7346,7 @@
         <v>6</v>
       </c>
       <c r="G48" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('47','q107', '6.SHOP KEEPER','6.†`vKvb`vi','6','');</v>
       </c>
     </row>
@@ -7356,11 +7368,11 @@
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('48','q107', '7.HANDICRAFTS','7.KzwUi wkí','7','');</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="11" customFormat="1" ht="38.25">
+    <row r="50" spans="1:7" s="11" customFormat="1" ht="25.5">
       <c r="A50" s="38">
         <v>49</v>
       </c>
@@ -7377,7 +7389,7 @@
         <v>8</v>
       </c>
       <c r="G50" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('49','q107', '8.SKILLED LABOUR','8.`¶ kªwgK (Kvgvi, Kzgvi, QyZvi, `wR©, gywP)','8','');</v>
       </c>
     </row>
@@ -7398,7 +7410,7 @@
         <v>9</v>
       </c>
       <c r="G51" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('50','q107', '9.VENDOR','9.†dwiIqvjv/ nKvi / ‡fÛvi','9','');</v>
       </c>
     </row>
@@ -7420,11 +7432,11 @@
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('51','q107', '10.DAILY LABOUR','10.w`bgRyi','10','');</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="11" customFormat="1" ht="38.25">
+    <row r="53" spans="1:7" s="11" customFormat="1" ht="25.5">
       <c r="A53" s="38">
         <v>52</v>
       </c>
@@ -7442,7 +7454,7 @@
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('52','q107', '11.BIUSNESS (small)','11.‡QvU e¨emv','11','');</v>
       </c>
     </row>
@@ -7463,11 +7475,11 @@
         <v>12</v>
       </c>
       <c r="G54" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('53','q107', '12.BIUSNESS (big)','12.eo e¨emv','12','');</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="11" customFormat="1" ht="38.25">
+    <row r="55" spans="1:7" s="11" customFormat="1" ht="25.5">
       <c r="A55" s="38">
         <v>54</v>
       </c>
@@ -7484,11 +7496,11 @@
         <v>13</v>
       </c>
       <c r="G55" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('54','q107', '13.GOVT. SERVICE','13.miKvwi PvKzwi','13','');</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="38.25">
+    <row r="56" spans="1:7" ht="25.5">
       <c r="A56" s="38">
         <v>55</v>
       </c>
@@ -7505,7 +7517,7 @@
         <v>14</v>
       </c>
       <c r="G56" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('55','q107', '14.PRIVATE SERVICE','14.†emiKvwi PvKzwi','14','');</v>
       </c>
     </row>
@@ -7526,11 +7538,11 @@
         <v>15</v>
       </c>
       <c r="G57" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('56','q107', '15.UNEMPLOYED','15.†eKvi','15','');</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="38.25">
+    <row r="58" spans="1:7" ht="25.5">
       <c r="A58" s="38">
         <v>57</v>
       </c>
@@ -7547,11 +7559,11 @@
         <v>16</v>
       </c>
       <c r="G58" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('57','q107', '16.GAEMENT WORKER','16.Mv‡g©›Um Kg©x','16','');</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="38.25">
+    <row r="59" spans="1:7" ht="25.5">
       <c r="A59" s="38">
         <v>58</v>
       </c>
@@ -7571,7 +7583,7 @@
         <v>217</v>
       </c>
       <c r="G59" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('58','q107', '96.OTHERS (SPECIFY)','96.Ab¨vb¨ (wbw`©ó Kiæb)','96','q107Other');</v>
       </c>
     </row>
@@ -7592,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('59','q201', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
@@ -7613,11 +7625,11 @@
         <v>2</v>
       </c>
       <c r="G61" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('60','q201', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="38.25">
+    <row r="62" spans="1:7" ht="25.5">
       <c r="A62" s="38">
         <v>61</v>
       </c>
@@ -7634,11 +7646,11 @@
         <v>8</v>
       </c>
       <c r="G62" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('61','q201', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="38.25">
+    <row r="63" spans="1:7" ht="25.5">
       <c r="A63" s="38">
         <v>62</v>
       </c>
@@ -7655,7 +7667,7 @@
         <v>9</v>
       </c>
       <c r="G63" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('62','q201', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -7676,7 +7688,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('63','q202', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
@@ -7697,11 +7709,11 @@
         <v>2</v>
       </c>
       <c r="G65" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('64','q202', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="38.25">
+    <row r="66" spans="1:7" ht="25.5">
       <c r="A66" s="38">
         <v>65</v>
       </c>
@@ -7718,11 +7730,11 @@
         <v>8</v>
       </c>
       <c r="G66" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('65','q202', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="38.25">
+    <row r="67" spans="1:7" ht="25.5">
       <c r="A67" s="38">
         <v>66</v>
       </c>
@@ -7739,7 +7751,7 @@
         <v>9</v>
       </c>
       <c r="G67" s="125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G67:G130" si="1">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A67&amp;"','" &amp;B67&amp;"', '" &amp;D67&amp;"','" &amp;C67&amp;"','" &amp;E67&amp;"','"&amp;F67&amp;"');"</f>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('66','q202', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -7786,7 +7798,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('68','q203', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="38.25">
+    <row r="70" spans="1:7" ht="25.5">
       <c r="A70" s="38">
         <v>69</v>
       </c>
@@ -7807,7 +7819,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('69','q203', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="38.25">
+    <row r="71" spans="1:7" ht="25.5">
       <c r="A71" s="38">
         <v>70</v>
       </c>
@@ -7870,7 +7882,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('72','q204', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="38.25">
+    <row r="74" spans="1:7" ht="25.5">
       <c r="A74" s="38">
         <v>73</v>
       </c>
@@ -7891,7 +7903,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('73','q204', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="38.25">
+    <row r="75" spans="1:7" ht="25.5">
       <c r="A75" s="38">
         <v>74</v>
       </c>
@@ -7955,7 +7967,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('76','q205', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="38.25">
+    <row r="78" spans="1:7" ht="25.5">
       <c r="A78" s="38">
         <v>77</v>
       </c>
@@ -7976,7 +7988,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('77','q205', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="38.25">
+    <row r="79" spans="1:7" ht="25.5">
       <c r="A79" s="38">
         <v>78</v>
       </c>
@@ -8039,7 +8051,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('80','q206', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="38.25">
+    <row r="82" spans="1:7" ht="25.5">
       <c r="A82" s="38">
         <v>81</v>
       </c>
@@ -8060,7 +8072,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('81','q206', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="38.25">
+    <row r="83" spans="1:7" ht="25.5">
       <c r="A83" s="38">
         <v>82</v>
       </c>
@@ -8123,7 +8135,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('84','q207', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="38.25">
+    <row r="86" spans="1:7" ht="25.5">
       <c r="A86" s="38">
         <v>85</v>
       </c>
@@ -8144,7 +8156,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('85','q207', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="38.25">
+    <row r="87" spans="1:7" ht="25.5">
       <c r="A87" s="38">
         <v>86</v>
       </c>
@@ -8207,7 +8219,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('88','q208', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="38.25">
+    <row r="90" spans="1:7" ht="25.5">
       <c r="A90" s="38">
         <v>89</v>
       </c>
@@ -8228,7 +8240,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('89','q208', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="38.25">
+    <row r="91" spans="1:7" ht="25.5">
       <c r="A91" s="38">
         <v>90</v>
       </c>
@@ -8291,7 +8303,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('92','q209', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="38.25">
+    <row r="94" spans="1:7" ht="25.5">
       <c r="A94" s="38">
         <v>93</v>
       </c>
@@ -8309,11 +8321,11 @@
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="125" t="str">
-        <f t="shared" ref="G94:G157" si="2">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A94&amp;"','" &amp;B94&amp;"', '" &amp;D94&amp;"','" &amp;C94&amp;"','" &amp;E94&amp;"','"&amp;F94&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('93','q209', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="38.25">
+    <row r="95" spans="1:7" ht="25.5">
       <c r="A95" s="38">
         <v>94</v>
       </c>
@@ -8330,7 +8342,7 @@
         <v>9</v>
       </c>
       <c r="G95" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('94','q209', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -8351,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('95','q210', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
@@ -8372,11 +8384,11 @@
         <v>2</v>
       </c>
       <c r="G97" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('96','q210', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="38.25">
+    <row r="98" spans="1:8" ht="25.5">
       <c r="A98" s="38">
         <v>97</v>
       </c>
@@ -8393,11 +8405,11 @@
         <v>8</v>
       </c>
       <c r="G98" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('97','q210', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="38.25">
+    <row r="99" spans="1:8" ht="25.5">
       <c r="A99" s="38">
         <v>98</v>
       </c>
@@ -8414,7 +8426,7 @@
         <v>9</v>
       </c>
       <c r="G99" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('98','q210', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -8435,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('99','q211', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
@@ -8456,11 +8468,11 @@
         <v>2</v>
       </c>
       <c r="G101" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('100','q211', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="38.25">
+    <row r="102" spans="1:8" ht="25.5">
       <c r="A102" s="38">
         <v>101</v>
       </c>
@@ -8478,11 +8490,11 @@
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('101','q211', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="38.25">
+    <row r="103" spans="1:8" ht="25.5">
       <c r="A103" s="38">
         <v>102</v>
       </c>
@@ -8499,7 +8511,7 @@
         <v>9</v>
       </c>
       <c r="G103" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('102','q211', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -8520,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('103','q212', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
@@ -8541,11 +8553,11 @@
         <v>2</v>
       </c>
       <c r="G105" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('104','q212', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="38.25">
+    <row r="106" spans="1:8" ht="25.5">
       <c r="A106" s="38">
         <v>105</v>
       </c>
@@ -8562,11 +8574,11 @@
         <v>8</v>
       </c>
       <c r="G106" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('105','q212', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="38.25">
+    <row r="107" spans="1:8" ht="25.5">
       <c r="A107" s="38">
         <v>106</v>
       </c>
@@ -8583,7 +8595,7 @@
         <v>9</v>
       </c>
       <c r="G107" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('106','q212', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -8604,7 +8616,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('107','q213', '1.AGREE','1.GKgZ','1','');</v>
       </c>
       <c r="H108" s="6"/>
@@ -8627,12 +8639,12 @@
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('108','q213', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" s="7" customFormat="1" ht="38.25">
+    <row r="110" spans="1:8" s="7" customFormat="1" ht="25.5">
       <c r="A110" s="38">
         <v>109</v>
       </c>
@@ -8649,12 +8661,12 @@
         <v>8</v>
       </c>
       <c r="G110" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('109','q213', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8" ht="38.25">
+    <row r="111" spans="1:8" ht="25.5">
       <c r="A111" s="38">
         <v>110</v>
       </c>
@@ -8671,7 +8683,7 @@
         <v>9</v>
       </c>
       <c r="G111" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('110','q213', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -8692,7 +8704,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('111','q214', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
@@ -8713,11 +8725,11 @@
         <v>2</v>
       </c>
       <c r="G113" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('112','q214', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="38.25">
+    <row r="114" spans="1:7" ht="25.5">
       <c r="A114" s="38">
         <v>113</v>
       </c>
@@ -8734,11 +8746,11 @@
         <v>8</v>
       </c>
       <c r="G114" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('113','q214', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="38.25">
+    <row r="115" spans="1:7" ht="25.5">
       <c r="A115" s="38">
         <v>114</v>
       </c>
@@ -8755,7 +8767,7 @@
         <v>9</v>
       </c>
       <c r="G115" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('114','q214', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -8776,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('115','q215', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
@@ -8797,11 +8809,11 @@
         <v>2</v>
       </c>
       <c r="G117" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('116','q215', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="118" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A118" s="38">
         <v>117</v>
       </c>
@@ -8818,11 +8830,11 @@
         <v>8</v>
       </c>
       <c r="G118" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('117','q215', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="119" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A119" s="38">
         <v>118</v>
       </c>
@@ -8839,7 +8851,7 @@
         <v>9</v>
       </c>
       <c r="G119" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('118','q215', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -8860,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('119','q216', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
@@ -8881,11 +8893,11 @@
         <v>2</v>
       </c>
       <c r="G121" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('120','q216', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="38.25">
+    <row r="122" spans="1:7" ht="25.5">
       <c r="A122" s="38">
         <v>121</v>
       </c>
@@ -8903,11 +8915,11 @@
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('121','q216', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="38.25">
+    <row r="123" spans="1:7" ht="25.5">
       <c r="A123" s="38">
         <v>122</v>
       </c>
@@ -8925,7 +8937,7 @@
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('122','q216', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -8946,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('123','q217', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
@@ -8967,11 +8979,11 @@
         <v>2</v>
       </c>
       <c r="G125" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('124','q217', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="38.25">
+    <row r="126" spans="1:7" ht="25.5">
       <c r="A126" s="38">
         <v>125</v>
       </c>
@@ -8988,11 +9000,11 @@
         <v>8</v>
       </c>
       <c r="G126" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('125','q217', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="38.25">
+    <row r="127" spans="1:7" ht="25.5">
       <c r="A127" s="38">
         <v>126</v>
       </c>
@@ -9010,7 +9022,7 @@
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('126','q217', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -9031,7 +9043,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('127','q218', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
@@ -9052,11 +9064,11 @@
         <v>2</v>
       </c>
       <c r="G129" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('128','q218', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="38.25">
+    <row r="130" spans="1:7" ht="25.5">
       <c r="A130" s="38">
         <v>129</v>
       </c>
@@ -9073,11 +9085,11 @@
         <v>8</v>
       </c>
       <c r="G130" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('129','q218', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="38.25">
+    <row r="131" spans="1:7" ht="25.5">
       <c r="A131" s="38">
         <v>130</v>
       </c>
@@ -9094,7 +9106,7 @@
         <v>9</v>
       </c>
       <c r="G131" s="125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G131:G194" si="2">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A131&amp;"','" &amp;B131&amp;"', '" &amp;D131&amp;"','" &amp;C131&amp;"','" &amp;E131&amp;"','"&amp;F131&amp;"');"</f>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('130','q218', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -9140,7 +9152,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('132','q219', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="38.25">
+    <row r="134" spans="1:7" ht="25.5">
       <c r="A134" s="38">
         <v>133</v>
       </c>
@@ -9161,7 +9173,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('133','q219', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="38.25">
+    <row r="135" spans="1:7" ht="25.5">
       <c r="A135" s="38">
         <v>134</v>
       </c>
@@ -9225,7 +9237,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('136','q220', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="38.25">
+    <row r="138" spans="1:7" ht="25.5">
       <c r="A138" s="38">
         <v>137</v>
       </c>
@@ -9247,7 +9259,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('137','q220', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="38.25">
+    <row r="139" spans="1:7" ht="25.5">
       <c r="A139" s="38">
         <v>138</v>
       </c>
@@ -9289,7 +9301,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('139','q221', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="115" customFormat="1" ht="38.25">
+    <row r="141" spans="1:7" s="115" customFormat="1" ht="25.5">
       <c r="A141" s="38">
         <v>140</v>
       </c>
@@ -9331,7 +9343,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('141','q221', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="38.25">
+    <row r="143" spans="1:7" ht="25.5">
       <c r="A143" s="38">
         <v>142</v>
       </c>
@@ -9352,7 +9364,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('142','q221', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="38.25">
+    <row r="144" spans="1:7" ht="25.5">
       <c r="A144" s="38">
         <v>143</v>
       </c>
@@ -9394,7 +9406,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('144','q222', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="38.25">
+    <row r="146" spans="1:7" ht="25.5">
       <c r="A146" s="38">
         <v>145</v>
       </c>
@@ -9436,7 +9448,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('146','q222', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="38.25">
+    <row r="148" spans="1:7" ht="25.5">
       <c r="A148" s="38">
         <v>147</v>
       </c>
@@ -9457,7 +9469,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('147','q222', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="38.25">
+    <row r="149" spans="1:7" ht="25.5">
       <c r="A149" s="38">
         <v>148</v>
       </c>
@@ -9499,7 +9511,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('149','q223', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="38.25">
+    <row r="151" spans="1:7" ht="25.5">
       <c r="A151" s="38">
         <v>150</v>
       </c>
@@ -9541,7 +9553,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('151','q223', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="38.25">
+    <row r="153" spans="1:7" ht="25.5">
       <c r="A153" s="38">
         <v>152</v>
       </c>
@@ -9562,7 +9574,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('152','q223', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="38.25">
+    <row r="154" spans="1:7" ht="25.5">
       <c r="A154" s="38">
         <v>153</v>
       </c>
@@ -9605,7 +9617,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('154','q224', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="38.25">
+    <row r="156" spans="1:7" ht="25.5">
       <c r="A156" s="38">
         <v>155</v>
       </c>
@@ -9647,7 +9659,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('156','q224', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="38.25">
+    <row r="158" spans="1:7" ht="25.5">
       <c r="A158" s="38">
         <v>157</v>
       </c>
@@ -9664,11 +9676,11 @@
         <v>8</v>
       </c>
       <c r="G158" s="125" t="str">
-        <f t="shared" ref="G158:G221" si="3">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A158&amp;"','" &amp;B158&amp;"', '" &amp;D158&amp;"','" &amp;C158&amp;"','" &amp;E158&amp;"','"&amp;F158&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('157','q224', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="38.25">
+    <row r="159" spans="1:7" ht="25.5">
       <c r="A159" s="38">
         <v>158</v>
       </c>
@@ -9685,7 +9697,7 @@
         <v>9</v>
       </c>
       <c r="G159" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('158','q224', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -9706,11 +9718,11 @@
         <v>1</v>
       </c>
       <c r="G160" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('159','q225', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="38.25">
+    <row r="161" spans="1:7" ht="25.5">
       <c r="A161" s="38">
         <v>160</v>
       </c>
@@ -9727,7 +9739,7 @@
         <v>2</v>
       </c>
       <c r="G161" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('160','q225', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
@@ -9748,11 +9760,11 @@
         <v>3</v>
       </c>
       <c r="G162" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('161','q225', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="38.25">
+    <row r="163" spans="1:7" ht="25.5">
       <c r="A163" s="38">
         <v>162</v>
       </c>
@@ -9769,11 +9781,11 @@
         <v>8</v>
       </c>
       <c r="G163" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('162','q225', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="38.25">
+    <row r="164" spans="1:7" ht="25.5">
       <c r="A164" s="38">
         <v>163</v>
       </c>
@@ -9790,7 +9802,7 @@
         <v>9</v>
       </c>
       <c r="G164" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('163','q225', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -9811,11 +9823,11 @@
         <v>1</v>
       </c>
       <c r="G165" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('164','q226', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="38.25">
+    <row r="166" spans="1:7" ht="25.5">
       <c r="A166" s="38">
         <v>165</v>
       </c>
@@ -9832,7 +9844,7 @@
         <v>2</v>
       </c>
       <c r="G166" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('165','q226', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
@@ -9853,11 +9865,11 @@
         <v>3</v>
       </c>
       <c r="G167" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('166','q226', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="38.25">
+    <row r="168" spans="1:7" ht="25.5">
       <c r="A168" s="38">
         <v>167</v>
       </c>
@@ -9874,11 +9886,11 @@
         <v>8</v>
       </c>
       <c r="G168" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('167','q226', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="38.25">
+    <row r="169" spans="1:7" ht="25.5">
       <c r="A169" s="38">
         <v>168</v>
       </c>
@@ -9895,7 +9907,7 @@
         <v>9</v>
       </c>
       <c r="G169" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('168','q226', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -9916,11 +9928,11 @@
         <v>1</v>
       </c>
       <c r="G170" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('169','q227', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="38.25">
+    <row r="171" spans="1:7" ht="25.5">
       <c r="A171" s="38">
         <v>170</v>
       </c>
@@ -9937,7 +9949,7 @@
         <v>2</v>
       </c>
       <c r="G171" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('170','q227', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
@@ -9958,11 +9970,11 @@
         <v>3</v>
       </c>
       <c r="G172" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('171','q227', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="38.25">
+    <row r="173" spans="1:7" ht="25.5">
       <c r="A173" s="38">
         <v>172</v>
       </c>
@@ -9979,11 +9991,11 @@
         <v>8</v>
       </c>
       <c r="G173" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('172','q227', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="38.25">
+    <row r="174" spans="1:7" ht="25.5">
       <c r="A174" s="38">
         <v>173</v>
       </c>
@@ -10000,7 +10012,7 @@
         <v>9</v>
       </c>
       <c r="G174" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('173','q227', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -10021,11 +10033,11 @@
         <v>1</v>
       </c>
       <c r="G175" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('174','q228', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="38.25">
+    <row r="176" spans="1:7" ht="25.5">
       <c r="A176" s="38">
         <v>175</v>
       </c>
@@ -10042,7 +10054,7 @@
         <v>2</v>
       </c>
       <c r="G176" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('175','q228', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
@@ -10063,11 +10075,11 @@
         <v>3</v>
       </c>
       <c r="G177" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('176','q228', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="38.25">
+    <row r="178" spans="1:7" ht="25.5">
       <c r="A178" s="38">
         <v>177</v>
       </c>
@@ -10084,11 +10096,11 @@
         <v>8</v>
       </c>
       <c r="G178" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('177','q228', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="38.25">
+    <row r="179" spans="1:7" ht="25.5">
       <c r="A179" s="38">
         <v>178</v>
       </c>
@@ -10105,7 +10117,7 @@
         <v>9</v>
       </c>
       <c r="G179" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('178','q228', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -10126,11 +10138,11 @@
         <v>1</v>
       </c>
       <c r="G180" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('179','q229', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="38.25">
+    <row r="181" spans="1:7" ht="25.5">
       <c r="A181" s="38">
         <v>180</v>
       </c>
@@ -10147,7 +10159,7 @@
         <v>2</v>
       </c>
       <c r="G181" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('180','q229', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
@@ -10168,11 +10180,11 @@
         <v>3</v>
       </c>
       <c r="G182" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('181','q229', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="38.25">
+    <row r="183" spans="1:7" ht="25.5">
       <c r="A183" s="38">
         <v>182</v>
       </c>
@@ -10189,11 +10201,11 @@
         <v>8</v>
       </c>
       <c r="G183" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('182','q229', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="38.25">
+    <row r="184" spans="1:7" ht="25.5">
       <c r="A184" s="38">
         <v>183</v>
       </c>
@@ -10210,7 +10222,7 @@
         <v>9</v>
       </c>
       <c r="G184" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('183','q229', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -10231,11 +10243,11 @@
         <v>1</v>
       </c>
       <c r="G185" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('184','q230', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="38.25">
+    <row r="186" spans="1:7" ht="25.5">
       <c r="A186" s="38">
         <v>185</v>
       </c>
@@ -10252,7 +10264,7 @@
         <v>2</v>
       </c>
       <c r="G186" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('185','q230', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
@@ -10273,11 +10285,11 @@
         <v>3</v>
       </c>
       <c r="G187" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('186','q230', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="38.25">
+    <row r="188" spans="1:7" ht="25.5">
       <c r="A188" s="38">
         <v>187</v>
       </c>
@@ -10294,11 +10306,11 @@
         <v>8</v>
       </c>
       <c r="G188" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('187','q230', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="38.25">
+    <row r="189" spans="1:7" ht="25.5">
       <c r="A189" s="38">
         <v>188</v>
       </c>
@@ -10315,7 +10327,7 @@
         <v>9</v>
       </c>
       <c r="G189" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('188','q230', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -10336,11 +10348,11 @@
         <v>1</v>
       </c>
       <c r="G190" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('189','q231', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="38.25">
+    <row r="191" spans="1:7" ht="25.5">
       <c r="A191" s="38">
         <v>190</v>
       </c>
@@ -10357,7 +10369,7 @@
         <v>2</v>
       </c>
       <c r="G191" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('190','q231', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
@@ -10378,11 +10390,11 @@
         <v>3</v>
       </c>
       <c r="G192" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('191','q231', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="38.25">
+    <row r="193" spans="1:7" ht="25.5">
       <c r="A193" s="38">
         <v>192</v>
       </c>
@@ -10399,11 +10411,11 @@
         <v>8</v>
       </c>
       <c r="G193" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('192','q231', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="38.25">
+    <row r="194" spans="1:7" ht="25.5">
       <c r="A194" s="38">
         <v>193</v>
       </c>
@@ -10420,7 +10432,7 @@
         <v>9</v>
       </c>
       <c r="G194" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('193','q231', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -10441,11 +10453,11 @@
         <v>1</v>
       </c>
       <c r="G195" s="125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G195:G236" si="3">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A195&amp;"','" &amp;B195&amp;"', '" &amp;D195&amp;"','" &amp;C195&amp;"','" &amp;E195&amp;"','"&amp;F195&amp;"');"</f>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('194','q232', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="38.25">
+    <row r="196" spans="1:7" ht="25.5">
       <c r="A196" s="38">
         <v>195</v>
       </c>
@@ -10487,7 +10499,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('196','q232', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="38.25">
+    <row r="198" spans="1:7" ht="25.5">
       <c r="A198" s="38">
         <v>197</v>
       </c>
@@ -10508,7 +10520,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('197','q232', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="38.25">
+    <row r="199" spans="1:7" ht="25.5">
       <c r="A199" s="38">
         <v>198</v>
       </c>
@@ -10551,7 +10563,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('199','q233', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="38.25">
+    <row r="201" spans="1:7" ht="25.5">
       <c r="A201" s="38">
         <v>200</v>
       </c>
@@ -10595,7 +10607,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('201','q233', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="38.25">
+    <row r="203" spans="1:7" ht="25.5">
       <c r="A203" s="38">
         <v>202</v>
       </c>
@@ -10617,7 +10629,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('202','q233', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="38.25">
+    <row r="204" spans="1:7" ht="25.5">
       <c r="A204" s="38">
         <v>203</v>
       </c>
@@ -10660,7 +10672,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('204','q234', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="38.25">
+    <row r="206" spans="1:7" ht="25.5">
       <c r="A206" s="38">
         <v>205</v>
       </c>
@@ -10703,7 +10715,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('206','q234', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="38.25">
+    <row r="208" spans="1:7" ht="25.5">
       <c r="A208" s="38">
         <v>207</v>
       </c>
@@ -10725,7 +10737,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('207','q234', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="38.25">
+    <row r="209" spans="1:7" ht="25.5">
       <c r="A209" s="38">
         <v>208</v>
       </c>
@@ -10767,7 +10779,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('209','q235', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="38.25">
+    <row r="211" spans="1:7" ht="25.5">
       <c r="A211" s="38">
         <v>210</v>
       </c>
@@ -10809,7 +10821,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('211','q235', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="38.25">
+    <row r="213" spans="1:7" ht="25.5">
       <c r="A213" s="38">
         <v>212</v>
       </c>
@@ -10830,7 +10842,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('212','q235', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="38.25">
+    <row r="214" spans="1:7" ht="25.5">
       <c r="A214" s="38">
         <v>213</v>
       </c>
@@ -10872,7 +10884,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('214','q236', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="38.25">
+    <row r="216" spans="1:7" ht="25.5">
       <c r="A216" s="38">
         <v>215</v>
       </c>
@@ -10914,7 +10926,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('216','q236', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="38.25">
+    <row r="218" spans="1:7" ht="25.5">
       <c r="A218" s="38">
         <v>217</v>
       </c>
@@ -10935,7 +10947,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('217','q236', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="38.25">
+    <row r="219" spans="1:7" ht="25.5">
       <c r="A219" s="38">
         <v>218</v>
       </c>
@@ -10977,7 +10989,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('219','q237', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="38.25">
+    <row r="221" spans="1:7" ht="25.5">
       <c r="A221" s="38">
         <v>220</v>
       </c>
@@ -11015,11 +11027,11 @@
         <v>3</v>
       </c>
       <c r="G222" s="125" t="str">
-        <f t="shared" ref="G222:G236" si="4">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A222&amp;"','" &amp;B222&amp;"', '" &amp;D222&amp;"','" &amp;C222&amp;"','" &amp;E222&amp;"','"&amp;F222&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('221','q237', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="38.25">
+    <row r="223" spans="1:7" ht="25.5">
       <c r="A223" s="38">
         <v>222</v>
       </c>
@@ -11036,11 +11048,11 @@
         <v>8</v>
       </c>
       <c r="G223" s="125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('222','q237', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="38.25">
+    <row r="224" spans="1:7" ht="25.5">
       <c r="A224" s="38">
         <v>223</v>
       </c>
@@ -11057,7 +11069,7 @@
         <v>9</v>
       </c>
       <c r="G224" s="125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('223','q237', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
@@ -11078,11 +11090,11 @@
         <v>1</v>
       </c>
       <c r="G225" s="125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('224','q238', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="38.25">
+    <row r="226" spans="1:7" ht="25.5">
       <c r="A226" s="38">
         <v>225</v>
       </c>
@@ -11099,7 +11111,7 @@
         <v>2</v>
       </c>
       <c r="G226" s="125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('225','q238', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
@@ -11120,11 +11132,11 @@
         <v>3</v>
       </c>
       <c r="G227" s="125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('226','q238', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="38.25">
+    <row r="228" spans="1:7" ht="25.5">
       <c r="A228" s="38">
         <v>227</v>
       </c>
@@ -11141,11 +11153,11 @@
         <v>8</v>
       </c>
       <c r="G228" s="125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('227','q238', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="38.25">
+    <row r="229" spans="1:7" ht="25.5">
       <c r="A229" s="38">
         <v>228</v>
       </c>
@@ -11162,11 +11174,11 @@
         <v>9</v>
       </c>
       <c r="G229" s="125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('228','q238', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="38.25">
+    <row r="230" spans="1:7" ht="25.5">
       <c r="A230" s="38">
         <v>229</v>
       </c>
@@ -11183,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="G230" s="125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('229','q239_4', 'd) He mistreats her','N.Zvi ¯^vgx Lvivc AvPib K‡i','0','');</v>
       </c>
     </row>
@@ -11204,11 +11216,11 @@
         <v>0</v>
       </c>
       <c r="G231" s="125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('230','q239_3', 'c) She is sick','M.¯¿x Amy¯’ _v‡K','0','');</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="38.25">
+    <row r="232" spans="1:7" ht="25.5">
       <c r="A232" s="38">
         <v>231</v>
       </c>
@@ -11225,11 +11237,11 @@
         <v>0</v>
       </c>
       <c r="G232" s="125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('231','q239_2', 'b) He is drunk','L.Zvi ¯^vgx gvZvj Ae¯’vq _v‡K','0','');</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="38.25">
+    <row r="233" spans="1:7" ht="25.5">
       <c r="A233" s="38">
         <v>232</v>
       </c>
@@ -11246,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="G233" s="125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('232','q239_1', 'a) She doesn’t want to','K.¯¿xi B”Qv bv _v‡K','0','');</v>
       </c>
     </row>
@@ -11267,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="G234" s="125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('233','q239_Options', '1.YES ','1.nu¨v','1','');</v>
       </c>
     </row>
@@ -11288,7 +11300,7 @@
         <v>2</v>
       </c>
       <c r="G235" s="125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('234','q239_Options', '2.NO','2.bv','2','');</v>
       </c>
     </row>
@@ -11309,7 +11321,7 @@
         <v>8</v>
       </c>
       <c r="G236" s="125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('235','q239_Options', '8.DK','8.Rvwbbv','8','');</v>
       </c>
     </row>

--- a/DB and Documents/WASHB_DRAFT_MLHECommunity.xlsx
+++ b/DB and Documents/WASHB_DRAFT_MLHECommunity.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="389">
   <si>
     <t>SLNo</t>
   </si>
@@ -1261,6 +1261,45 @@
   </si>
   <si>
     <t>226.¯¿x mnev‡m ivRx bv n‡j ¯^vgx Zv‡K gviai Ki‡Z cv‡i|</t>
+  </si>
+  <si>
+    <t>q108</t>
+  </si>
+  <si>
+    <t>108.What is your current marital status?</t>
+  </si>
+  <si>
+    <t>108.Avcbvi eZ©gvb ˆeevwnK Ae¯’v wK?</t>
+  </si>
+  <si>
+    <t>1. weevwnZ</t>
+  </si>
+  <si>
+    <t>2. ZvjvKcÖvß</t>
+  </si>
+  <si>
+    <t>3. wew”Qbœ/Avjv`v _v‡Kb</t>
+  </si>
+  <si>
+    <t>4. wecwZœK</t>
+  </si>
+  <si>
+    <t>5. KLbI we‡q K‡ibwb</t>
+  </si>
+  <si>
+    <t>2. DIVORCED</t>
+  </si>
+  <si>
+    <t>1. MARRIED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. SEPARATED </t>
+  </si>
+  <si>
+    <t>4. WIDOW</t>
+  </si>
+  <si>
+    <t>5. NEVER MARRIED</t>
   </si>
 </sst>
 </file>
@@ -2927,10 +2966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:H88"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3514,8 +3553,8 @@
       <c r="F15" s="121" t="s">
         <v>232</v>
       </c>
-      <c r="H15" t="s">
-        <v>38</v>
+      <c r="H15" s="140" t="s">
+        <v>376</v>
       </c>
       <c r="R15" s="140" t="s">
         <v>42</v>
@@ -3529,7 +3568,7 @@
       <c r="U15" s="140"/>
       <c r="V15" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q107','frmsinglechoice', 'tblMainQues','107.Avcwb cÖavbZ wK ai‡bi KvR K‡ib?','107.What kind of work do you mainly do?','','msg201','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q107','frmsinglechoice', 'tblMainQues','107.Avcwb cÖavbZ wK ai‡bi KvR K‡ib?','107.What kind of work do you mainly do?','','q108','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="31.5">
@@ -3551,8 +3590,8 @@
       <c r="F16" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="H16" t="s">
-        <v>38</v>
+      <c r="H16" s="140" t="s">
+        <v>376</v>
       </c>
       <c r="R16" s="140" t="s">
         <v>42</v>
@@ -3566,30 +3605,30 @@
       <c r="U16" s="140"/>
       <c r="V16" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'q107Other','frmtext', 'tblMainQues','107.Ab¨vb¨(wbw`©ó K‡i ejyb) ','107.OTHER (Specify) ','','msg201','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="30">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'q107Other','frmtext', 'tblMainQues','107.Ab¨vb¨(wbw`©ó K‡i ejyb) ','107.OTHER (Specify) ','','q108','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="140" customFormat="1" ht="31.5">
       <c r="A17" s="140">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="140" t="s">
+        <v>376</v>
+      </c>
+      <c r="C17" s="140" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="140" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="142" t="s">
+        <v>378</v>
+      </c>
+      <c r="F17" s="141" t="s">
+        <v>377</v>
+      </c>
+      <c r="H17" s="140" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="122" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="121" t="s">
-        <v>236</v>
-      </c>
-      <c r="H17" t="s">
-        <v>39</v>
       </c>
       <c r="R17" s="140" t="s">
         <v>42</v>
@@ -3600,18 +3639,17 @@
       <c r="T17" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="U17" s="140"/>
       <c r="V17" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('16', 'msg201','frmmessage', 'tblMainQues','সেকশন ২','SECTION 2  GENDER NORMS AND ATTITUDES','','msg202','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="255">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('16', 'q108','frmsinglechoice', 'tblMainQues','108.Avcbvi eZ©gvb ˆeevwnK Ae¯’v wK?','108.What is your current marital status?','','msg201','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="30">
       <c r="A18" s="140">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -3620,13 +3658,13 @@
         <v>45</v>
       </c>
       <c r="E18" s="122" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="F18" s="121" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="H18" t="s">
-        <v>307</v>
+        <v>39</v>
       </c>
       <c r="R18" s="140" t="s">
         <v>42</v>
@@ -3640,30 +3678,30 @@
       <c r="U18" s="140"/>
       <c r="V18" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('17', 'msg202','frmmessage', 'tblMainQues','GLb Rxeb m¤ú‡K© we‡kl K‡i mgv‡R bvix-cyi“‡li m¤úK© m¤^‡Ü Avcbvi gZvgZ  Rvb‡Z PvB‡ev| Gme †Kvb cÖ‡kœiB wVK ev fyj DËi e‡j wKQy †bB| Avwg Avm‡j Gme wel‡q Avcbvi wK gZvgZ ZvB Rvb‡Z Pvw”Q| Avwg wKQy e³e¨ c‡o †kvbv‡ev| Avcwb Avgv‡K ej‡eb e³e¨¸‡jvi mv‡_ wK GKgZ bvwK wØgZ †cvlY K‡ib?','In this community and elsewhere, people have different ideas about families and children and what is acceptable behaviour for men and women in the home. I am going to read you a list of statements, and I would like you to tell me whether you generally agree or disagree with the statement. There are no right or wrong answers.','','q201','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="60">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('17', 'msg201','frmmessage', 'tblMainQues','সেকশন ২','SECTION 2  GENDER NORMS AND ATTITUDES','','msg202','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="255">
       <c r="A19" s="140">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>307</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="122" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="F19" s="121" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R19" s="140" t="s">
         <v>42</v>
@@ -3677,15 +3715,15 @@
       <c r="U19" s="140"/>
       <c r="V19" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('18', 'q201','frmsinglechoice', 'tblMainQues','201.‡g‡q‡`i †P‡q †Q‡j‡`i †ekx †jLvcov Kiv `iKvi|','201.It is important that sons have more education than daughters.','','q202','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="63">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('18', 'msg202','frmmessage', 'tblMainQues','GLb Rxeb m¤ú‡K© we‡kl K‡i mgv‡R bvix-cyi“‡li m¤úK© m¤^‡Ü Avcbvi gZvgZ  Rvb‡Z PvB‡ev| Gme †Kvb cÖ‡kœiB wVK ev fyj DËi e‡j wKQy †bB| Avwg Avm‡j Gme wel‡q Avcbvi wK gZvgZ ZvB Rvb‡Z Pvw”Q| Avwg wKQy e³e¨ c‡o †kvbv‡ev| Avcwb Avgv‡K ej‡eb e³e¨¸‡jvi mv‡_ wK GKgZ bvwK wØgZ †cvlY K‡ib?','In this community and elsewhere, people have different ideas about families and children and what is acceptable behaviour for men and women in the home. I am going to read you a list of statements, and I would like you to tell me whether you generally agree or disagree with the statement. There are no right or wrong answers.','','q201','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="60">
       <c r="A20" s="140">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -3694,13 +3732,13 @@
         <v>45</v>
       </c>
       <c r="E20" s="122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F20" s="121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R20" s="140" t="s">
         <v>42</v>
@@ -3714,15 +3752,15 @@
       <c r="U20" s="140"/>
       <c r="V20" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('19', 'q202','frmsinglechoice', 'tblMainQues','202.‡g‡q‡`i‡K ïaygvÎ ZLbB ¯‹z‡j cvVv‡bv DwPZ hLb evwo‡Z Zv‡`i †Kvb KvR †bB| ','202.Daughters should be sent to school only if they are not needed to help at home.','','q203','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="120">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('19', 'q201','frmsinglechoice', 'tblMainQues','201.‡g‡q‡`i †P‡q †Q‡j‡`i †ekx †jLvcov Kiv `iKvi|','201.It is important that sons have more education than daughters.','','q202','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="63">
       <c r="A21" s="140">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -3731,13 +3769,13 @@
         <v>45</v>
       </c>
       <c r="E21" s="122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F21" s="121" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R21" s="140" t="s">
         <v>42</v>
@@ -3751,15 +3789,15 @@
       <c r="U21" s="140"/>
       <c r="V21" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('20', 'q203','frmsinglechoice', 'tblMainQues','203.‡g‡q‡`i †P‡q †Q‡j‡`i †ekx †jLvcov Kiv `iKvi hv‡Z, hLb evev-gv e„× n‡q hv‡e Zviv Zv‡`i evev-gv‡K fv‡jvgZ †`Lv‡kvbv Ki‡Z cv‡i | ','203.The most important reason that sons should be more educated than daughters is so that they can better look after their parents when they are older.','','q204','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('20', 'q202','frmsinglechoice', 'tblMainQues','202.‡g‡q‡`i‡K ïaygvÎ ZLbB ¯‹z‡j cvVv‡bv DwPZ hLb evwo‡Z Zv‡`i †Kvb KvR †bB| ','202.Daughters should be sent to school only if they are not needed to help at home.','','q203','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="120">
       <c r="A22" s="140">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -3768,13 +3806,13 @@
         <v>45</v>
       </c>
       <c r="E22" s="122" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F22" s="121" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R22" s="140" t="s">
         <v>42</v>
@@ -3788,15 +3826,15 @@
       <c r="U22" s="140"/>
       <c r="V22" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('21', 'q204','frmsinglechoice', 'tblMainQues','204.hw` †jLvcovi Li‡Pi Rb¨ mvgvb¨ wKQz UvKv _v‡K Z‡e †mUv †Q‡j‡`i Rb¨B LiP Kiv DwPZ|','204.If there is a limited amount of money to pay for tutoring, it should be spent on sons first.','','q205','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="94.5">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('21', 'q203','frmsinglechoice', 'tblMainQues','203.‡g‡q‡`i †P‡q †Q‡j‡`i †ekx †jLvcov Kiv `iKvi hv‡Z, hLb evev-gv e„× n‡q hv‡e Zviv Zv‡`i evev-gv‡K fv‡jvgZ †`Lv‡kvbv Ki‡Z cv‡i | ','203.The most important reason that sons should be more educated than daughters is so that they can better look after their parents when they are older.','','q204','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="75">
       <c r="A23" s="140">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -3805,13 +3843,13 @@
         <v>45</v>
       </c>
       <c r="E23" s="122" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F23" s="121" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R23" s="140" t="s">
         <v>42</v>
@@ -3825,15 +3863,15 @@
       <c r="U23" s="140"/>
       <c r="V23" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('22', 'q205','frmsinglechoice', 'tblMainQues','205.GKRb bvixi ïay Zvi wb‡Ri †Q‡j‡g‡q‡`i fv‡jvgZ ‡`Lv‡kvbv Kiv DwPZ Ges Ab¨ gvby‡li e¨vcv‡i wPšÍv Kivi `iKvi bvB|','205.A woman should take good care of her own children and not worry about other people’s affairs.','','q206','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="47.25">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('22', 'q204','frmsinglechoice', 'tblMainQues','204.hw` †jLvcovi Li‡Pi Rb¨ mvgvb¨ wKQz UvKv _v‡K Z‡e †mUv †Q‡j‡`i Rb¨B LiP Kiv DwPZ|','204.If there is a limited amount of money to pay for tutoring, it should be spent on sons first.','','q205','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="94.5">
       <c r="A24" s="140">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -3841,14 +3879,14 @@
       <c r="D24" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="142" t="s">
-        <v>370</v>
-      </c>
-      <c r="F24" s="141" t="s">
-        <v>371</v>
+      <c r="E24" s="122" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="121" t="s">
+        <v>246</v>
       </c>
       <c r="H24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R24" s="140" t="s">
         <v>42</v>
@@ -3862,15 +3900,15 @@
       <c r="U24" s="140"/>
       <c r="V24" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('23', 'q206','frmsinglechoice', 'tblMainQues','206.bvix‡`i DwPZ ivRbxwZUv cyiæl‡`i Rb¨ †Q‡o ‡`qv | ','206.Women should leave politics to the men.','','q207','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="63">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('23', 'q205','frmsinglechoice', 'tblMainQues','205.GKRb bvixi ïay Zvi wb‡Ri †Q‡j‡g‡q‡`i fv‡jvgZ ‡`Lv‡kvbv Kiv DwPZ Ges Ab¨ gvby‡li e¨vcv‡i wPšÍv Kivi `iKvi bvB|','205.A woman should take good care of her own children and not worry about other people’s affairs.','','q206','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="47.25">
       <c r="A25" s="140">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -3878,14 +3916,14 @@
       <c r="D25" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="122" t="s">
-        <v>247</v>
-      </c>
-      <c r="F25" s="121" t="s">
-        <v>248</v>
+      <c r="E25" s="142" t="s">
+        <v>370</v>
+      </c>
+      <c r="F25" s="141" t="s">
+        <v>371</v>
       </c>
       <c r="H25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R25" s="140" t="s">
         <v>42</v>
@@ -3899,15 +3937,15 @@
       <c r="U25" s="140"/>
       <c r="V25" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('24', 'q207','frmsinglechoice', 'tblMainQues','207.bvix‡`i iÿv Kivi Rb¨ Zvi mv‡_ Zvi ¯^vgx ev mšÍvb ev Ab¨ †Kvb cyiæl AvZ¥xq _vKv DwPZ|','207.A woman has to have a husband or sons or some other male kinsman to protect her.','','q208','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="60">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('24', 'q206','frmsinglechoice', 'tblMainQues','206.bvix‡`i DwPZ ivRbxwZUv cyiæl‡`i Rb¨ †Q‡o ‡`qv | ','206.Women should leave politics to the men.','','q207','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="63">
       <c r="A26" s="140">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -3916,13 +3954,13 @@
         <v>45</v>
       </c>
       <c r="E26" s="122" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F26" s="121" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R26" s="140" t="s">
         <v>42</v>
@@ -3936,15 +3974,15 @@
       <c r="U26" s="140"/>
       <c r="V26" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('25', 'q208','frmsinglechoice', 'tblMainQues','208.GKRb e„× bvix ïaygvÎ Zvi cyÎmšÍv‡bi DciB wbf©i Ki‡Z cv‡i| ','208.The only thing a woman can really rely on in her old age is her sons.','','q209','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('25', 'q207','frmsinglechoice', 'tblMainQues','207.bvix‡`i iÿv Kivi Rb¨ Zvi mv‡_ Zvi ¯^vgx ev mšÍvb ev Ab¨ †Kvb cyiæl AvZ¥xq _vKv DwPZ|','207.A woman has to have a husband or sons or some other male kinsman to protect her.','','q208','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="60">
       <c r="A27" s="140">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -3953,13 +3991,13 @@
         <v>45</v>
       </c>
       <c r="E27" s="122" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F27" s="121" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R27" s="140" t="s">
         <v>42</v>
@@ -3973,7 +4011,7 @@
       <c r="U27" s="140"/>
       <c r="V27" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('26', 'q209','frmsinglechoice', 'tblMainQues','209.GKRb fv‡jv ¯¿x Zvi ¯^vgxi mv‡_ GKgZ bv n‡jI ¯^vgxi gZvg‡Zi e¨vcv‡i †Kv‡bv cªkœ Ki‡e bv|','209.A good woman never questions her husband’s opinions, even if she is not sure she agrees with them.','','q210','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('26', 'q208','frmsinglechoice', 'tblMainQues','208.GKRb e„× bvix ïaygvÎ Zvi cyÎmšÍv‡bi DciB wbf©i Ki‡Z cv‡i| ','208.The only thing a woman can really rely on in her old age is her sons.','','q209','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="75">
@@ -3981,7 +4019,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -3990,13 +4028,13 @@
         <v>45</v>
       </c>
       <c r="E28" s="122" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F28" s="121" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R28" s="140" t="s">
         <v>42</v>
@@ -4010,7 +4048,7 @@
       <c r="U28" s="140"/>
       <c r="V28" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('27', 'q210','frmsinglechoice', 'tblMainQues','210.hLb ev”Pvi ¯^v¯’¨ wb‡q cÖkœ Av‡m ZLb ev”Pvi evev hv fv‡jv g‡b  K‡i ZvB Kiv DwPZ| ','210.When it is a question of children’s health, it is best to do whatever the father wants.','','q211','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('27', 'q209','frmsinglechoice', 'tblMainQues','209.GKRb fv‡jv ¯¿x Zvi ¯^vgxi mv‡_ GKgZ bv n‡jI ¯^vgxi gZvg‡Zi e¨vcv‡i †Kv‡bv cªkœ Ki‡e bv|','209.A good woman never questions her husband’s opinions, even if she is not sure she agrees with them.','','q210','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="75">
@@ -4018,7 +4056,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -4027,13 +4065,13 @@
         <v>45</v>
       </c>
       <c r="E29" s="122" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F29" s="121" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R29" s="140" t="s">
         <v>42</v>
@@ -4047,15 +4085,15 @@
       <c r="U29" s="140"/>
       <c r="V29" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('28', 'q211','frmsinglechoice', 'tblMainQues','211.‡g‡qiv hw` evoxi evB‡i KvR Ki‡Z Pvq Zvn‡j  Zv ev”Pv nIqvi ciB Kiv DwPZ| ','211.Daughters should be able to work outside the home after they have children if they want to.','','q212','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="60">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('28', 'q210','frmsinglechoice', 'tblMainQues','210.hLb ev”Pvi ¯^v¯’¨ wb‡q cÖkœ Av‡m ZLb ev”Pvi evev hv fv‡jv g‡b  K‡i ZvB Kiv DwPZ| ','210.When it is a question of children’s health, it is best to do whatever the father wants.','','q211','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="75">
       <c r="A30" s="140">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
@@ -4064,13 +4102,13 @@
         <v>45</v>
       </c>
       <c r="E30" s="122" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="F30" s="121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R30" s="140" t="s">
         <v>42</v>
@@ -4084,15 +4122,15 @@
       <c r="U30" s="140"/>
       <c r="V30" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('29', 'q212','frmsinglechoice', 'tblMainQues','212.evoxi evB‡i KvR Kivi †¶‡Î †Q‡j †g‡q Df‡qiB mgvb my‡hvM cvIqv DwPZ| ','212.Daughters should have just the same chance to work outside the homes as sons.','','q213','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="105">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('29', 'q211','frmsinglechoice', 'tblMainQues','211.‡g‡qiv hw` evoxi evB‡i KvR Ki‡Z Pvq Zvn‡j  Zv ev”Pv nIqvi ciB Kiv DwPZ| ','211.Daughters should be able to work outside the home after they have children if they want to.','','q212','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="60">
       <c r="A31" s="140">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -4101,13 +4139,13 @@
         <v>45</v>
       </c>
       <c r="E31" s="122" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="F31" s="121" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R31" s="140" t="s">
         <v>42</v>
@@ -4121,15 +4159,15 @@
       <c r="U31" s="140"/>
       <c r="V31" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('30', 'q213','frmsinglechoice', 'tblMainQues','213.‡g‡q‡`i ejv DwPZ Zviv †hb †ekx ev”Pv bv †bq,  Zvn‡j Zviv evoxi evB‡i KvR Ki‡Z cvi‡e Ges UvKv Avq Ki‡Z cvi‡e| ','213.Daughters should be told that an important reason not to have too many children is so they can work outside the home and earn money.','','q214','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('30', 'q212','frmsinglechoice', 'tblMainQues','212.evoxi evB‡i KvR Kivi †¶‡Î †Q‡j †g‡q Df‡qiB mgvb my‡hvM cvIqv DwPZ| ','212.Daughters should have just the same chance to work outside the homes as sons.','','q213','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="105">
       <c r="A32" s="140">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
@@ -4138,13 +4176,13 @@
         <v>45</v>
       </c>
       <c r="E32" s="122" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F32" s="121" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R32" s="140" t="s">
         <v>42</v>
@@ -4158,15 +4196,15 @@
       <c r="U32" s="140"/>
       <c r="V32" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('31', 'q214','frmsinglechoice', 'tblMainQues','214.Avwg PvB Avgvi ‡g‡q ‡hb evoxi evB‡i KvR Ki‡Z cv‡i, †hb †m Zvi wb‡Ri cÖ‡qvRb wb‡RB ‡gUv‡Z cv‡i|','214.I would like my daughter to be able to work outside the home so she can support herself if necessary.','','q215','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="47.25">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('31', 'q213','frmsinglechoice', 'tblMainQues','213.‡g‡q‡`i ejv DwPZ Zviv †hb †ekx ev”Pv bv †bq,  Zvn‡j Zviv evoxi evB‡i KvR Ki‡Z cvi‡e Ges UvKv Avq Ki‡Z cvi‡e| ','213.Daughters should be told that an important reason not to have too many children is so they can work outside the home and earn money.','','q214','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="75">
       <c r="A33" s="140">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
@@ -4175,13 +4213,13 @@
         <v>45</v>
       </c>
       <c r="E33" s="122" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F33" s="121" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R33" s="140" t="s">
         <v>42</v>
@@ -4195,15 +4233,15 @@
       <c r="U33" s="140"/>
       <c r="V33" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('32', 'q215','frmsinglechoice', 'tblMainQues','215.g†Zi wgj bv n‡jI GKRb fvj ¯¿xi Zvi ¯^vgx‡K †g‡b Pjv DwPZ|','215.A good wife obeys her husband even if she disagrees ','','q216','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="60">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('32', 'q214','frmsinglechoice', 'tblMainQues','214.Avwg PvB Avgvi ‡g‡q ‡hb evoxi evB‡i KvR Ki‡Z cv‡i, †hb †m Zvi wb‡Ri cÖ‡qvRb wb‡RB ‡gUv‡Z cv‡i|','214.I would like my daughter to be able to work outside the home so she can support herself if necessary.','','q215','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="47.25">
       <c r="A34" s="140">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
@@ -4211,14 +4249,14 @@
       <c r="D34" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="142" t="s">
-        <v>372</v>
-      </c>
-      <c r="F34" s="141" t="s">
-        <v>373</v>
+      <c r="E34" s="122" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" s="121" t="s">
+        <v>263</v>
       </c>
       <c r="H34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R34" s="140" t="s">
         <v>42</v>
@@ -4232,7 +4270,7 @@
       <c r="U34" s="140"/>
       <c r="V34" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('33', 'q216','frmsinglechoice', 'tblMainQues','216.N‡ii K_v ci‡K Rvbv‡bv wVK bv|','216.Family problems should only be discussed with people in the family','','q217','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('33', 'q215','frmsinglechoice', 'tblMainQues','215.g†Zi wgj bv n‡jI GKRb fvj ¯¿xi Zvi ¯^vgx‡K †g‡b Pjv DwPZ|','215.A good wife obeys her husband even if she disagrees ','','q216','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="60">
@@ -4240,7 +4278,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
@@ -4248,14 +4286,14 @@
       <c r="D35" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="122" t="s">
-        <v>264</v>
-      </c>
-      <c r="F35" s="121" t="s">
-        <v>265</v>
+      <c r="E35" s="142" t="s">
+        <v>372</v>
+      </c>
+      <c r="F35" s="141" t="s">
+        <v>373</v>
       </c>
       <c r="H35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R35" s="140" t="s">
         <v>42</v>
@@ -4269,7 +4307,7 @@
       <c r="U35" s="140"/>
       <c r="V35" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('34', 'q217','frmsinglechoice', 'tblMainQues','217.¯^vgxi DwPr ¯¿xi Dci Lei`vix  Kiv |','217.It is important for a man to show his wife/partner who is the boss.','','q218','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('34', 'q216','frmsinglechoice', 'tblMainQues','216.N‡ii K_v ci‡K Rvbv‡bv wVK bv|','216.Family problems should only be discussed with people in the family','','q217','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="60">
@@ -4277,7 +4315,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
@@ -4286,13 +4324,13 @@
         <v>45</v>
       </c>
       <c r="E36" s="122" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F36" s="121" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R36" s="140" t="s">
         <v>42</v>
@@ -4306,15 +4344,15 @@
       <c r="U36" s="140"/>
       <c r="V36" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('35', 'q218','frmsinglechoice', 'tblMainQues','218.¯^vgx cQ›` KiæK ev bv KiæK ¯¿xi wb‡Ri eÜz-evÜe ‡e‡Q †bIqv DwPZ|','218.A woman should be able to choose her own friends even if her husband disapproves','','q219','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('35', 'q217','frmsinglechoice', 'tblMainQues','217.¯^vgxi DwPr ¯¿xi Dci Lei`vix  Kiv |','217.It is important for a man to show his wife/partner who is the boss.','','q218','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="60">
       <c r="A37" s="140">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
@@ -4323,13 +4361,13 @@
         <v>45</v>
       </c>
       <c r="E37" s="122" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F37" s="121" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R37" s="140" t="s">
         <v>42</v>
@@ -4343,15 +4381,15 @@
       <c r="U37" s="140"/>
       <c r="V37" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('36', 'q219','frmsinglechoice', 'tblMainQues','219.gb bv PvB‡jI ¯^vgxi mv‡_ mnevm Kiv GKRb ¯¿xi Aek¨ KZ©e¨|','219.It’s a wife’s obligation to have sex with her husband even if she doesn’t feel like it.','','q220','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="63">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('36', 'q218','frmsinglechoice', 'tblMainQues','218.¯^vgx cQ›` KiæK ev bv KiæK ¯¿xi wb‡Ri eÜz-evÜe ‡e‡Q †bIqv DwPZ|','218.A woman should be able to choose her own friends even if her husband disapproves','','q219','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="75">
       <c r="A38" s="140">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
@@ -4360,13 +4398,13 @@
         <v>45</v>
       </c>
       <c r="E38" s="122" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F38" s="121" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H38" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="R38" s="140" t="s">
         <v>42</v>
@@ -4380,30 +4418,30 @@
       <c r="U38" s="140"/>
       <c r="V38" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('37', 'q220','frmsinglechoice', 'tblMainQues','220.¯^vgx ¯¿xi mv‡_ Lvivc e¨envi Ki‡j cwiev‡ii evB‡ii ‡jv‡KiI GB e¨vcv‡i wKQy Kiv DwPZ|','220.If a man mistreats his wife, others outside of the family should intervene.','','msg203','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="56.25">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('37', 'q219','frmsinglechoice', 'tblMainQues','219.gb bv PvB‡jI ¯^vgxi mv‡_ mnevm Kiv GKRb ¯¿xi Aek¨ KZ©e¨|','219.It’s a wife’s obligation to have sex with her husband even if she doesn’t feel like it.','','q220','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="63">
       <c r="A39" s="140">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="122" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="F39" s="121" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="H39" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="R39" s="140" t="s">
         <v>42</v>
@@ -4417,30 +4455,30 @@
       <c r="U39" s="140"/>
       <c r="V39" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('38', 'msg203','frmmessage', 'tblMainQues','cÖkœ 221 - 238 Rb¨ Avcwb Avgv‡K ej‡eb e³e¨¸‡jvi mv‡_ wK GKgZ, AvswkK GKgZ bvwK GKgZ bq?','Now I will ask you some questions','','q221','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="45">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('38', 'q220','frmsinglechoice', 'tblMainQues','220.¯^vgx ¯¿xi mv‡_ Lvivc e¨envi Ki‡j cwiev‡ii evB‡ii ‡jv‡KiI GB e¨vcv‡i wKQy Kiv DwPZ|','220.If a man mistreats his wife, others outside of the family should intervene.','','msg203','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="56.25">
       <c r="A40" s="140">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
       </c>
       <c r="E40" s="122" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="F40" s="121" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="H40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R40" s="140" t="s">
         <v>42</v>
@@ -4454,15 +4492,15 @@
       <c r="U40" s="140"/>
       <c r="V40" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('39', 'q221','frmsinglechoice', 'tblMainQues','221.wKQy wKQy †¶‡Î †g‡q‡`i Mv‡q nvZ †Zvjv `iKvi|','221.There are times when a woman deserves to be beaten.','','q222','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="75">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('39', 'msg203','frmmessage', 'tblMainQues','cÖkœ 221 - 238 Rb¨ Avcwb Avgv‡K ej‡eb e³e¨¸‡jvi mv‡_ wK GKgZ, AvswkK GKgZ bvwK GKgZ bq?','Now I will ask you some questions','','q221','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="45">
       <c r="A41" s="140">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
@@ -4471,13 +4509,13 @@
         <v>45</v>
       </c>
       <c r="E41" s="122" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F41" s="121" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R41" s="140" t="s">
         <v>42</v>
@@ -4491,15 +4529,15 @@
       <c r="U41" s="140"/>
       <c r="V41" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('40', 'q222','frmsinglechoice', 'tblMainQues','222.gbgZ N‡ii KvR bv Ki‡j ¯^vgx  ¯¿x†K gviai Ki‡Z cv‡i|','222.A man can hit his wife if she does not complete her household work to his satisfaction.','','q223','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="47.25">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('40', 'q221','frmsinglechoice', 'tblMainQues','221.wKQy wKQy †¶‡Î †g‡q‡`i Mv‡q nvZ †Zvjv `iKvi|','221.There are times when a woman deserves to be beaten.','','q222','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="75">
       <c r="A42" s="140">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C42" t="s">
         <v>31</v>
@@ -4508,13 +4546,13 @@
         <v>45</v>
       </c>
       <c r="E42" s="122" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F42" s="121" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R42" s="140" t="s">
         <v>42</v>
@@ -4528,7 +4566,7 @@
       <c r="U42" s="140"/>
       <c r="V42" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('41', 'q223','frmsinglechoice', 'tblMainQues','223.¯¿xi PwiÎ wb‡q m‡›`n n‡j ¯^vgx ¯¿x†K gviai Ki‡Z cv‡i|','223.A man can hit his wife if he suspects that she is unfaithful','','q224','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('41', 'q222','frmsinglechoice', 'tblMainQues','222.gbgZ N‡ii KvR bv Ki‡j ¯^vgx  ¯¿x†K gviai Ki‡Z cv‡i|','222.A man can hit his wife if she does not complete her household work to his satisfaction.','','q223','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="47.25">
@@ -4536,7 +4574,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C43" t="s">
         <v>31</v>
@@ -4545,13 +4583,13 @@
         <v>45</v>
       </c>
       <c r="E43" s="122" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F43" s="121" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R43" s="140" t="s">
         <v>42</v>
@@ -4565,15 +4603,15 @@
       <c r="U43" s="140"/>
       <c r="V43" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('42', 'q224','frmsinglechoice', 'tblMainQues','224.¯¿xi PwiÎ Lvivc n‡j ¯^vgx ¯¿x†K gviai Ki‡Z cv‡i|','224.It is alright for a man to beat his wife if she is unfaithful.','','q225','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="63">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('42', 'q223','frmsinglechoice', 'tblMainQues','223.¯¿xi PwiÎ wb‡q m‡›`n n‡j ¯^vgx ¯¿x†K gviai Ki‡Z cv‡i|','223.A man can hit his wife if he suspects that she is unfaithful','','q224','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="47.25">
       <c r="A44" s="140">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C44" t="s">
         <v>31</v>
@@ -4582,13 +4620,13 @@
         <v>45</v>
       </c>
       <c r="E44" s="122" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F44" s="121" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R44" s="140" t="s">
         <v>42</v>
@@ -4602,15 +4640,15 @@
       <c r="U44" s="140"/>
       <c r="V44" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('43', 'q225','frmsinglechoice', 'tblMainQues','225.Ab¨ †g‡qi m‡½ m¤cK© Av‡Q wKbv Zv Rvb‡Z PvB‡j ¯^vgx ¯¿x‡K gviai Ki‡Z cv‡i|','225.A man can hit his wife if she asks him whether he has other girlfriends.','','q226','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="47.25">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('43', 'q224','frmsinglechoice', 'tblMainQues','224.¯¿xi PwiÎ Lvivc n‡j ¯^vgx ¯¿x†K gviai Ki‡Z cv‡i|','224.It is alright for a man to beat his wife if she is unfaithful.','','q225','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="63">
       <c r="A45" s="140">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C45" t="s">
         <v>31</v>
@@ -4618,14 +4656,14 @@
       <c r="D45" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="142" t="s">
-        <v>375</v>
-      </c>
-      <c r="F45" s="141" t="s">
-        <v>374</v>
+      <c r="E45" s="122" t="s">
+        <v>280</v>
+      </c>
+      <c r="F45" s="121" t="s">
+        <v>281</v>
       </c>
       <c r="H45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R45" s="140" t="s">
         <v>42</v>
@@ -4639,15 +4677,15 @@
       <c r="U45" s="140"/>
       <c r="V45" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('44', 'q226','frmsinglechoice', 'tblMainQues','226.¯¿x mnev‡m ivRx bv n‡j ¯^vgx Zv‡K gviai Ki‡Z cv‡i|','226.A man can hit his wife if she won’t have sex with him.','','q227','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="60">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('44', 'q225','frmsinglechoice', 'tblMainQues','225.Ab¨ †g‡qi m‡½ m¤cK© Av‡Q wKbv Zv Rvb‡Z PvB‡j ¯^vgx ¯¿x‡K gviai Ki‡Z cv‡i|','225.A man can hit his wife if she asks him whether he has other girlfriends.','','q226','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="47.25">
       <c r="A46" s="140">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C46" t="s">
         <v>31</v>
@@ -4655,14 +4693,14 @@
       <c r="D46" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="122" t="s">
-        <v>282</v>
-      </c>
-      <c r="F46" s="121" t="s">
-        <v>283</v>
+      <c r="E46" s="142" t="s">
+        <v>375</v>
+      </c>
+      <c r="F46" s="141" t="s">
+        <v>374</v>
       </c>
       <c r="H46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R46" s="140" t="s">
         <v>42</v>
@@ -4676,15 +4714,15 @@
       <c r="U46" s="140"/>
       <c r="V46" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('45', 'q227','frmsinglechoice', 'tblMainQues','227.msmvi wUwK‡q ivLvi Rb¨ GKRb bvixi wbh©vZb mn¨ K‡i hvIqv DwPZ| ','227.A woman should tolerate violence to keep her family together.','','q228','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="63">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('45', 'q226','frmsinglechoice', 'tblMainQues','226.¯¿x mnev‡m ivRx bv n‡j ¯^vgx Zv‡K gviai Ki‡Z cv‡i|','226.A man can hit his wife if she won’t have sex with him.','','q227','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="60">
       <c r="A47" s="140">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C47" t="s">
         <v>31</v>
@@ -4693,13 +4731,13 @@
         <v>45</v>
       </c>
       <c r="E47" s="122" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F47" s="121" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R47" s="140" t="s">
         <v>42</v>
@@ -4713,15 +4751,15 @@
       <c r="U47" s="140"/>
       <c r="V47" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('46', 'q228','frmsinglechoice', 'tblMainQues','228.GKRb cyiæl‡K †KD Acgvb Ki‡j kix‡ii †Rvi LvwU‡q n‡jI Zvi wb‡Ri gh©v`v i¶v Kiv DwPZ|','228.If someone insults a man, he should defend his reputation with force if he has to.','','q229','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="90">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('46', 'q227','frmsinglechoice', 'tblMainQues','227.msmvi wUwK‡q ivLvi Rb¨ GKRb bvixi wbh©vZb mn¨ K‡i hvIqv DwPZ| ','227.A woman should tolerate violence to keep her family together.','','q228','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="63">
       <c r="A48" s="140">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C48" t="s">
         <v>31</v>
@@ -4730,13 +4768,13 @@
         <v>45</v>
       </c>
       <c r="E48" s="122" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F48" s="121" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R48" s="140" t="s">
         <v>42</v>
@@ -4750,15 +4788,15 @@
       <c r="U48" s="140"/>
       <c r="V48" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('47', 'q229','frmsinglechoice', 'tblMainQues','229.GKRb cyiæl Zvi ¯¿x‡K gviai K‡i, evB‡ii Kv‡iv mv‡_ Zv Av‡jvPbv Kiv DwPZ bq| ','229.A man using violence against his wife is a private matter that shouldn’t be discussed outside the couple.','','q230','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('47', 'q228','frmsinglechoice', 'tblMainQues','228.GKRb cyiæl‡K †KD Acgvb Ki‡j kix‡ii †Rvi LvwU‡q n‡jI Zvi wb‡Ri gh©v`v i¶v Kiv DwPZ|','228.If someone insults a man, he should defend his reputation with force if he has to.','','q229','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="90">
       <c r="A49" s="140">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C49" t="s">
         <v>31</v>
@@ -4766,14 +4804,14 @@
       <c r="D49" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="130" t="s">
-        <v>290</v>
-      </c>
-      <c r="F49" s="120" t="s">
-        <v>359</v>
+      <c r="E49" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="F49" s="121" t="s">
+        <v>287</v>
       </c>
       <c r="H49" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R49" s="140" t="s">
         <v>42</v>
@@ -4787,15 +4825,15 @@
       <c r="U49" s="140"/>
       <c r="V49" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('48', 'q230','frmsinglechoice', 'tblMainQues','230.†g‡q‡`i PvB‡Z †Q‡j‡`i †m• (†hŠb Pvwn`v) ‡ekx|','230.Men need sex more than women do.','','q231','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="63">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('48', 'q229','frmsinglechoice', 'tblMainQues','229.GKRb cyiæl Zvi ¯¿x‡K gviai K‡i, evB‡ii Kv‡iv mv‡_ Zv Av‡jvPbv Kiv DwPZ bq| ','229.A man using violence against his wife is a private matter that shouldn’t be discussed outside the couple.','','q230','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="140">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C50" t="s">
         <v>31</v>
@@ -4803,14 +4841,14 @@
       <c r="D50" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="122" t="s">
-        <v>291</v>
-      </c>
-      <c r="F50" s="121" t="s">
-        <v>292</v>
+      <c r="E50" s="130" t="s">
+        <v>290</v>
+      </c>
+      <c r="F50" s="120" t="s">
+        <v>359</v>
       </c>
       <c r="H50" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R50" s="140" t="s">
         <v>42</v>
@@ -4824,15 +4862,15 @@
       <c r="U50" s="140"/>
       <c r="V50" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('49', 'q231','frmsinglechoice', 'tblMainQues','231.GKRb cyiæ‡li Zvi ¯¿xi mv‡_ fv‡jv m¤úK ©_vK‡jI Zvi Rxe‡b Ab¨ gwnjvi cÖ‡qvRb Av‡Q|','231.A man needs other women even if things with his wife are fine.','','q232','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="45">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('49', 'q230','frmsinglechoice', 'tblMainQues','230.†g‡q‡`i PvB‡Z †Q‡j‡`i †m• (†hŠb Pvwn`v) ‡ekx|','230.Men need sex more than women do.','','q231','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="63">
       <c r="A51" s="140">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C51" t="s">
         <v>31</v>
@@ -4841,13 +4879,13 @@
         <v>45</v>
       </c>
       <c r="E51" s="122" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F51" s="121" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R51" s="140" t="s">
         <v>42</v>
@@ -4861,15 +4899,15 @@
       <c r="U51" s="140"/>
       <c r="V51" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('50', 'q232','frmsinglechoice', 'tblMainQues','232.GKRb cyiæl bvix‡`i gZ AvPiY Ki‡j ‡mUv GKUv N„Yvi welq| ','232.It disgusts me when I see a man acting like a woman.','','q233','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="60">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('50', 'q231','frmsinglechoice', 'tblMainQues','231.GKRb cyiæ‡li Zvi ¯¿xi mv‡_ fv‡jv m¤úK ©_vK‡jI Zvi Rxe‡b Ab¨ gwnjvi cÖ‡qvRb Av‡Q|','231.A man needs other women even if things with his wife are fine.','','q232','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="45">
       <c r="A52" s="140">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C52" t="s">
         <v>31</v>
@@ -4878,13 +4916,13 @@
         <v>45</v>
       </c>
       <c r="E52" s="122" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F52" s="121" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R52" s="140" t="s">
         <v>42</v>
@@ -4898,7 +4936,7 @@
       <c r="U52" s="140"/>
       <c r="V52" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('51', 'q233','frmsinglechoice', 'tblMainQues','233.‡h bvix Zvi we‡qi Av‡M †hŠbKvR K‡i‡Q Zv‡K m¤§vb Kiv DwPZ bq| ','233.A woman who has sex before she marries does not deserve respect.','','q234','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('51', 'q232','frmsinglechoice', 'tblMainQues','232.GKRb cyiæl bvix‡`i gZ AvPiY Ki‡j ‡mUv GKUv N„Yvi welq| ','232.It disgusts me when I see a man acting like a woman.','','q233','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="60">
@@ -4906,7 +4944,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C53" t="s">
         <v>31</v>
@@ -4915,13 +4953,13 @@
         <v>45</v>
       </c>
       <c r="E53" s="122" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F53" s="121" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R53" s="140" t="s">
         <v>42</v>
@@ -4935,15 +4973,15 @@
       <c r="U53" s="140"/>
       <c r="V53" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('52', 'q234','frmsinglechoice', 'tblMainQues','234.¯¿x hw` ¯^vgx‡K KbWg e¨envi Ki‡Z e‡j Zvn‡j  ¯^vgxi †i‡M  hvIqv DwPr|','234.Men should be outraged if their wives ask them to use a condom.','','q235','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="45">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('52', 'q233','frmsinglechoice', 'tblMainQues','233.‡h bvix Zvi we‡qi Av‡M †hŠbKvR K‡i‡Q Zv‡K m¤§vb Kiv DwPZ bq| ','233.A woman who has sex before she marries does not deserve respect.','','q234','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="60">
       <c r="A54" s="140">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C54" t="s">
         <v>31</v>
@@ -4952,13 +4990,13 @@
         <v>45</v>
       </c>
       <c r="E54" s="122" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F54" s="121" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R54" s="140" t="s">
         <v>42</v>
@@ -4972,15 +5010,15 @@
       <c r="U54" s="140"/>
       <c r="V54" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('53', 'q235','frmsinglechoice', 'tblMainQues','235.†c‡U ev”Pv Avmv †VKv‡bv bvixi `vwqZ¡| ','235.It is a woman’s responsibility to avoid getting pregnant.','','q236','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="63">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('53', 'q234','frmsinglechoice', 'tblMainQues','234.¯¿x hw` ¯^vgx‡K KbWg e¨envi Ki‡Z e‡j Zvn‡j  ¯^vgxi †i‡M  hvIqv DwPr|','234.Men should be outraged if their wives ask them to use a condom.','','q235','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="45">
       <c r="A55" s="140">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C55" t="s">
         <v>31</v>
@@ -4989,13 +5027,13 @@
         <v>45</v>
       </c>
       <c r="E55" s="122" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F55" s="121" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R55" s="140" t="s">
         <v>42</v>
@@ -5009,15 +5047,15 @@
       <c r="U55" s="140"/>
       <c r="V55" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('54', 'q236','frmsinglechoice', 'tblMainQues','236.GKRb bvixi me‡P‡q ¸iæZ¡c~Y© KvR n‡jv msmv‡ii †`Lv‡kvbv Kiv I ivbœv-evbœv Kiv|','236.A woman’s role is taking care of her home and family.','','q237','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="60">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('54', 'q235','frmsinglechoice', 'tblMainQues','235.†c‡U ev”Pv Avmv †VKv‡bv bvixi `vwqZ¡| ','235.It is a woman’s responsibility to avoid getting pregnant.','','q236','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="63">
       <c r="A56" s="140">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C56" t="s">
         <v>31</v>
@@ -5026,13 +5064,13 @@
         <v>45</v>
       </c>
       <c r="E56" s="122" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F56" s="121" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R56" s="140" t="s">
         <v>42</v>
@@ -5046,15 +5084,15 @@
       <c r="U56" s="140"/>
       <c r="V56" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('55', 'q237','frmsinglechoice', 'tblMainQues','237.evoxi cÖavb DcKib †Kbvi e¨vcv‡i wm×všÍ ¯^vgxi †bIqv DwPZ| ','237.The husband should decide to buy the major household items.','','q238','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="47.25">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('55', 'q236','frmsinglechoice', 'tblMainQues','236.GKRb bvixi me‡P‡q ¸iæZ¡c~Y© KvR n‡jv msmv‡ii †`Lv‡kvbv Kiv I ivbœv-evbœv Kiv|','236.A woman’s role is taking care of her home and family.','','q237','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="60">
       <c r="A57" s="140">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C57" t="s">
         <v>31</v>
@@ -5063,13 +5101,13 @@
         <v>45</v>
       </c>
       <c r="E57" s="122" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F57" s="121" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R57" s="140" t="s">
         <v>42</v>
@@ -5083,30 +5121,30 @@
       <c r="U57" s="140"/>
       <c r="V57" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('56', 'q238','frmsinglechoice', 'tblMainQues','238.cwiev‡ii ‡h †Kv‡bv wel‡q cyiæ‡li wm×všÍB P~ovšÍ nIqv DwPZ|','238.A man should have the final word about decisions in his home.','','q239','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="60">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('56', 'q237','frmsinglechoice', 'tblMainQues','237.evoxi cÖavb DcKib †Kbvi e¨vcv‡i wm×všÍ ¯^vgxi †bIqv DwPZ| ','237.The husband should decide to buy the major household items.','','q238','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="47.25">
       <c r="A58" s="140">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
       </c>
       <c r="E58" s="122" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="F58" s="121" t="s">
-        <v>352</v>
-      </c>
-      <c r="H58" s="140" t="s">
-        <v>133</v>
+        <v>306</v>
+      </c>
+      <c r="H58" t="s">
+        <v>345</v>
       </c>
       <c r="R58" s="140" t="s">
         <v>42</v>
@@ -5120,31 +5158,30 @@
       <c r="U58" s="140"/>
       <c r="V58" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('57', 'q239','frmmultiplecheckcombo', 'tblMainQues','239.Avcbvi g‡Z ¯^vgxi mv‡_ mnev‡m ¯¿x ivRx bv n‡j Zv gvbv hvq hw` ','239. In your opinion, can a married woman refuse to have sex with her husband if:','','qVisit','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" s="140" customFormat="1">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('57', 'q238','frmsinglechoice', 'tblMainQues','238.cwiev‡ii ‡h †Kv‡bv wel‡q cyiæ‡li wm×všÍB P~ovšÍ nIqv DwPZ|','238.A man should have the final word about decisions in his home.','','q239','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="60">
       <c r="A59" s="140">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>345</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
         <v>45</v>
       </c>
       <c r="E59" s="122" t="s">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="F59" s="121" t="s">
-        <v>135</v>
-      </c>
-      <c r="G59"/>
-      <c r="H59" t="s">
-        <v>139</v>
+        <v>352</v>
+      </c>
+      <c r="H59" s="140" t="s">
+        <v>133</v>
       </c>
       <c r="R59" s="140" t="s">
         <v>42</v>
@@ -5155,9 +5192,10 @@
       <c r="T59" s="140" t="s">
         <v>43</v>
       </c>
+      <c r="U59" s="140"/>
       <c r="V59" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('58', 'qVisit','frmsinglechoice', 'tblMainQues','নির্বাচন করুন','Please Select','','qDate1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('58', 'q239','frmmultiplecheckcombo', 'tblMainQues','239.Avcbvi g‡Z ¯^vgxi mv‡_ mnev‡m ¯¿x ivRx bv n‡j Zv gvbv hvq hw` ','239. In your opinion, can a married woman refuse to have sex with her husband if:','','qVisit','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="60" spans="1:22" s="140" customFormat="1">
@@ -5165,23 +5203,23 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="122" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F60" s="121" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="R60" s="140" t="s">
         <v>42</v>
@@ -5194,7 +5232,7 @@
       </c>
       <c r="V60" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('59', 'qDate1','frmdate', 'tblMainQues','ZvwiL','Date ','','qRes1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('59', 'qVisit','frmsinglechoice', 'tblMainQues','নির্বাচন করুন','Please Select','','qDate1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="61" spans="1:22" s="140" customFormat="1">
@@ -5202,23 +5240,23 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
         <v>45</v>
       </c>
       <c r="E61" s="122" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F61" s="121" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G61"/>
       <c r="H61" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="R61" s="140" t="s">
         <v>42</v>
@@ -5231,27 +5269,27 @@
       </c>
       <c r="V61" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('60', 'qRes1','frmsinglechoice', 'tblMainQues','djvdj †KvW','Result code','','qDate1Next','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" s="140" customFormat="1" ht="31.5">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('60', 'qDate1','frmdate', 'tblMainQues','ZvwiL','Date ','','qRes1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" s="140" customFormat="1">
       <c r="A62" s="140">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D62" t="s">
         <v>45</v>
       </c>
       <c r="E62" s="122" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F62" s="121" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G62"/>
       <c r="H62" t="s">
@@ -5268,15 +5306,15 @@
       </c>
       <c r="V62" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('61', 'qRes1_3Other','frmtext', 'tblMainQues','3.¯’wMZ (কারণ উল্লেখ করুন)','3.Postponed(mention the reason)','','qDate1Next','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" s="140" customFormat="1" ht="47.25">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('61', 'qRes1','frmsinglechoice', 'tblMainQues','djvdj †KvW','Result code','','qDate1Next','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" s="140" customFormat="1" ht="31.5">
       <c r="A63" s="140">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
         <v>30</v>
@@ -5285,14 +5323,14 @@
         <v>45</v>
       </c>
       <c r="E63" s="122" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F63" s="121" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G63"/>
-      <c r="H63" s="140" t="s">
-        <v>184</v>
+      <c r="H63" t="s">
+        <v>177</v>
       </c>
       <c r="R63" s="140" t="s">
         <v>42</v>
@@ -5305,15 +5343,15 @@
       </c>
       <c r="V63" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('62', 'qRes1_7Other','frmtext', 'tblMainQues','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7.Refused to continue the interview (mention the reason)','','qStart1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" s="140" customFormat="1" ht="31.5">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('62', 'qRes1_3Other','frmtext', 'tblMainQues','3.¯’wMZ (কারণ উল্লেখ করুন)','3.Postponed(mention the reason)','','qDate1Next','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" s="140" customFormat="1" ht="47.25">
       <c r="A64" s="140">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C64" t="s">
         <v>30</v>
@@ -5322,14 +5360,14 @@
         <v>45</v>
       </c>
       <c r="E64" s="122" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F64" s="121" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G64"/>
-      <c r="H64" t="s">
-        <v>177</v>
+      <c r="H64" s="140" t="s">
+        <v>184</v>
       </c>
       <c r="R64" s="140" t="s">
         <v>42</v>
@@ -5342,31 +5380,31 @@
       </c>
       <c r="V64" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('63', 'qRes1_8Other','frmtext', 'tblMainQues','8.Ab¨vb¨(কারণ উল্লেখ করুন)','8.Others(mention the reason) ','','qDate1Next','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" s="140" customFormat="1">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('63', 'qRes1_7Other','frmtext', 'tblMainQues','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7.Refused to continue the interview (mention the reason)','','qStart1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" s="140" customFormat="1" ht="31.5">
       <c r="A65" s="140">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
         <v>45</v>
       </c>
       <c r="E65" s="122" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F65" s="121" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="G65"/>
       <c r="H65" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="R65" s="140" t="s">
         <v>42</v>
@@ -5379,7 +5417,7 @@
       </c>
       <c r="V65" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('64', 'qDate1Next','frmdate', 'tblMainQues','cieZ©x mv¶v‡Zi ZvwiL','Date of next visit','','qStart1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('64', 'qRes1_8Other','frmtext', 'tblMainQues','8.Ab¨vb¨(কারণ উল্লেখ করুন)','8.Others(mention the reason) ','','qDate1Next','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="66" spans="1:22" s="140" customFormat="1">
@@ -5387,7 +5425,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C66" t="s">
         <v>132</v>
@@ -5396,14 +5434,14 @@
         <v>45</v>
       </c>
       <c r="E66" s="122" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="F66" s="121" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="G66"/>
       <c r="H66" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R66" s="140" t="s">
         <v>42</v>
@@ -5416,7 +5454,7 @@
       </c>
       <c r="V66" s="140" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('65', 'qDate2','frmdate', 'tblMainQues','ZvwiL','Date ','','qRes2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('65', 'qDate1Next','frmdate', 'tblMainQues','cieZ©x mv¶v‡Zi ZvwiL','Date of next visit','','qStart1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="67" spans="1:22" s="140" customFormat="1">
@@ -5424,23 +5462,23 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D67" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="122" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F67" s="121" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G67"/>
       <c r="H67" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="R67" s="140" t="s">
         <v>42</v>
@@ -5452,28 +5490,28 @@
         <v>43</v>
       </c>
       <c r="V67" s="140" t="str">
-        <f t="shared" ref="V67:V88" si="1">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A67&amp;"', '" &amp;B67&amp;"','" &amp;C67&amp;"', '" &amp;D67&amp;"','" &amp;E67&amp;"','" &amp;F67&amp;"','"&amp;G67&amp;"','"&amp;H67&amp;"','"&amp;I67&amp;"','"&amp;J67&amp;"', '"&amp;K67&amp;"','"&amp;L67&amp;"','"&amp;M67&amp;"','"&amp;N67&amp;"','"&amp;O67&amp;"','"&amp;P67&amp;"','"&amp;Q67&amp;"',"&amp;R67&amp;","&amp;S67&amp;",'"&amp;T67&amp;"');"</f>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('66', 'qRes2','frmsinglechoice', 'tblMainQues','djvdj †KvW','Result code','','qDate2Next','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" s="140" customFormat="1" ht="31.5">
+        <f t="shared" ref="V67:V89" si="1">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A67&amp;"', '" &amp;B67&amp;"','" &amp;C67&amp;"', '" &amp;D67&amp;"','" &amp;E67&amp;"','" &amp;F67&amp;"','"&amp;G67&amp;"','"&amp;H67&amp;"','"&amp;I67&amp;"','"&amp;J67&amp;"', '"&amp;K67&amp;"','"&amp;L67&amp;"','"&amp;M67&amp;"','"&amp;N67&amp;"','"&amp;O67&amp;"','"&amp;P67&amp;"','"&amp;Q67&amp;"',"&amp;R67&amp;","&amp;S67&amp;",'"&amp;T67&amp;"');"</f>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('66', 'qDate2','frmdate', 'tblMainQues','ZvwiL','Date ','','qRes2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" s="140" customFormat="1">
       <c r="A68" s="140">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
         <v>45</v>
       </c>
       <c r="E68" s="122" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F68" s="121" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G68"/>
       <c r="H68" t="s">
@@ -5490,15 +5528,15 @@
       </c>
       <c r="V68" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('67', 'qRes2_3Other','frmtext', 'tblMainQues','3.¯’wMZ (কারণ উল্লেখ করুন)','3.Postponed(mention the reason)','','qDate2Next','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" s="140" customFormat="1" ht="47.25">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('67', 'qRes2','frmsinglechoice', 'tblMainQues','djvdj †KvW','Result code','','qDate2Next','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" s="140" customFormat="1" ht="31.5">
       <c r="A69" s="140">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
@@ -5507,14 +5545,14 @@
         <v>45</v>
       </c>
       <c r="E69" s="122" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F69" s="121" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G69"/>
-      <c r="H69" s="140" t="s">
-        <v>185</v>
+      <c r="H69" t="s">
+        <v>180</v>
       </c>
       <c r="R69" s="140" t="s">
         <v>42</v>
@@ -5527,15 +5565,15 @@
       </c>
       <c r="V69" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('68', 'qRes2_7Other','frmtext', 'tblMainQues','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7.Refused to continue the interview (mention the reason)','','qStart2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" s="140" customFormat="1" ht="31.5">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('68', 'qRes2_3Other','frmtext', 'tblMainQues','3.¯’wMZ (কারণ উল্লেখ করুন)','3.Postponed(mention the reason)','','qDate2Next','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" s="140" customFormat="1" ht="47.25">
       <c r="A70" s="140">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
         <v>30</v>
@@ -5544,14 +5582,14 @@
         <v>45</v>
       </c>
       <c r="E70" s="122" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F70" s="121" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G70"/>
-      <c r="H70" t="s">
-        <v>180</v>
+      <c r="H70" s="140" t="s">
+        <v>185</v>
       </c>
       <c r="R70" s="140" t="s">
         <v>42</v>
@@ -5564,31 +5602,31 @@
       </c>
       <c r="V70" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('69', 'qRes2_8Other','frmtext', 'tblMainQues','8.Ab¨vb¨(কারণ উল্লেখ করুন)','8.Others(mention the reason) ','','qDate2Next','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" s="140" customFormat="1">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('69', 'qRes2_7Other','frmtext', 'tblMainQues','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7.Refused to continue the interview (mention the reason)','','qStart2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" s="140" customFormat="1" ht="31.5">
       <c r="A71" s="140">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="D71" t="s">
         <v>45</v>
       </c>
       <c r="E71" s="122" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F71" s="121" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="G71"/>
       <c r="H71" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="R71" s="140" t="s">
         <v>42</v>
@@ -5601,7 +5639,7 @@
       </c>
       <c r="V71" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('70', 'qDate2Next','frmdate', 'tblMainQues','cieZ©x mv¶v‡Zi ZvwiL','Date of next visit','','qStart2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('70', 'qRes2_8Other','frmtext', 'tblMainQues','8.Ab¨vb¨(কারণ উল্লেখ করুন)','8.Others(mention the reason) ','','qDate2Next','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="72" spans="1:22" s="140" customFormat="1">
@@ -5609,7 +5647,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
         <v>132</v>
@@ -5618,14 +5656,14 @@
         <v>45</v>
       </c>
       <c r="E72" s="122" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="F72" s="121" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="G72"/>
       <c r="H72" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="R72" s="140" t="s">
         <v>42</v>
@@ -5638,7 +5676,7 @@
       </c>
       <c r="V72" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('71', 'qDate3','frmdate', 'tblMainQues','ZvwiL','Date ','','qRes3','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('71', 'qDate2Next','frmdate', 'tblMainQues','cieZ©x mv¶v‡Zi ZvwiL','Date of next visit','','qStart2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="73" spans="1:22" s="140" customFormat="1">
@@ -5646,23 +5684,23 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D73" t="s">
         <v>45</v>
       </c>
       <c r="E73" s="122" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" s="121" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73"/>
       <c r="H73" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="R73" s="140" t="s">
         <v>42</v>
@@ -5675,27 +5713,27 @@
       </c>
       <c r="V73" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('72', 'qRes3','frmsinglechoice', 'tblMainQues','djvdj †KvW','Result code','','qTotalVisit','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" s="140" customFormat="1" ht="31.5">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('72', 'qDate3','frmdate', 'tblMainQues','ZvwiL','Date ','','qRes3','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" s="140" customFormat="1">
       <c r="A74" s="140">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
         <v>45</v>
       </c>
       <c r="E74" s="122" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F74" s="121" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G74"/>
       <c r="H74" t="s">
@@ -5712,15 +5750,15 @@
       </c>
       <c r="V74" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('73', 'qRes3_3Other','frmtext', 'tblMainQues','3.¯’wMZ (কারণ উল্লেখ করুন)','3.Postponed(mention the reason)','','qTotalVisit','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" s="140" customFormat="1" ht="47.25">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('73', 'qRes3','frmsinglechoice', 'tblMainQues','djvdj †KvW','Result code','','qTotalVisit','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" s="140" customFormat="1" ht="31.5">
       <c r="A75" s="140">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C75" t="s">
         <v>30</v>
@@ -5729,10 +5767,10 @@
         <v>45</v>
       </c>
       <c r="E75" s="122" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F75" s="121" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G75"/>
       <c r="H75" t="s">
@@ -5749,15 +5787,15 @@
       </c>
       <c r="V75" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('74', 'qRes3_7Other','frmtext', 'tblMainQues','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7.Refused to continue the interview (mention the reason)','','qTotalVisit','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" s="140" customFormat="1" ht="31.5">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('74', 'qRes3_3Other','frmtext', 'tblMainQues','3.¯’wMZ (কারণ উল্লেখ করুন)','3.Postponed(mention the reason)','','qTotalVisit','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" s="140" customFormat="1" ht="47.25">
       <c r="A76" s="140">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C76" t="s">
         <v>30</v>
@@ -5766,10 +5804,10 @@
         <v>45</v>
       </c>
       <c r="E76" s="122" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F76" s="121" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G76"/>
       <c r="H76" t="s">
@@ -5786,31 +5824,31 @@
       </c>
       <c r="V76" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('75', 'qRes3_8Other','frmtext', 'tblMainQues','8.Ab¨vb¨(কারণ উল্লেখ করুন)','8.Others(mention the reason) ','','qTotalVisit','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" s="140" customFormat="1">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('75', 'qRes3_7Other','frmtext', 'tblMainQues','7.mv¶vrKviPvwj‡q †h‡Z Pvqwb(কারণ উল্লেখ করুন)','7.Refused to continue the interview (mention the reason)','','qTotalVisit','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" s="140" customFormat="1" ht="31.5">
       <c r="A77" s="140">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D77" t="s">
         <v>45</v>
       </c>
       <c r="E77" s="122" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F77" s="121" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="G77"/>
       <c r="H77" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="R77" s="140" t="s">
         <v>42</v>
@@ -5823,7 +5861,7 @@
       </c>
       <c r="V77" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('76', 'qTotalVisit','frmnumeric', 'tblMainQues','‡gvUcwi`k©b','Total visit','','qStart3','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('76', 'qRes3_8Other','frmtext', 'tblMainQues','8.Ab¨vb¨(কারণ উল্লেখ করুন)','8.Others(mention the reason) ','','qTotalVisit','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="78" spans="1:22" s="140" customFormat="1">
@@ -5831,23 +5869,23 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
         <v>45</v>
       </c>
       <c r="E78" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F78" s="121" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G78"/>
-      <c r="H78" s="140" t="s">
-        <v>189</v>
+      <c r="H78" t="s">
+        <v>186</v>
       </c>
       <c r="R78" s="140" t="s">
         <v>42</v>
@@ -5860,7 +5898,7 @@
       </c>
       <c r="V78" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('77', 'qStart1','frmyeartomin', 'tblMainQues','mv¶vrKvi শুরু Kivimgq','Interview start time','','qEnd1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('77', 'qTotalVisit','frmnumeric', 'tblMainQues','‡gvUcwi`k©b','Total visit','','qStart3','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="79" spans="1:22" s="140" customFormat="1">
@@ -5868,7 +5906,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C79" t="s">
         <v>34</v>
@@ -5884,7 +5922,7 @@
       </c>
       <c r="G79"/>
       <c r="H79" s="140" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R79" s="140" t="s">
         <v>42</v>
@@ -5897,7 +5935,7 @@
       </c>
       <c r="V79" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('78', 'qStart2','frmyeartomin', 'tblMainQues','mv¶vrKvi শুরু Kivimgq','Interview start time','','qEnd2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('78', 'qStart1','frmyeartomin', 'tblMainQues','mv¶vrKvi শুরু Kivimgq','Interview start time','','qEnd1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="80" spans="1:22" s="140" customFormat="1">
@@ -5905,7 +5943,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C80" t="s">
         <v>34</v>
@@ -5921,7 +5959,7 @@
       </c>
       <c r="G80"/>
       <c r="H80" s="140" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R80" s="140" t="s">
         <v>42</v>
@@ -5934,15 +5972,15 @@
       </c>
       <c r="V80" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('79', 'qStart3','frmyeartomin', 'tblMainQues','mv¶vrKvi শুরু Kivimgq','Interview start time','','qEnd3','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('79', 'qStart2','frmyeartomin', 'tblMainQues','mv¶vrKvi শুরু Kivimgq','Interview start time','','qEnd2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" s="140" customFormat="1">
       <c r="A81" s="140">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C81" t="s">
         <v>34</v>
@@ -5951,13 +5989,14 @@
         <v>45</v>
       </c>
       <c r="E81" s="122" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F81" s="121" t="s">
-        <v>191</v>
-      </c>
-      <c r="H81" t="s">
-        <v>201</v>
+        <v>188</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81" s="140" t="s">
+        <v>193</v>
       </c>
       <c r="R81" s="140" t="s">
         <v>42</v>
@@ -5968,10 +6007,9 @@
       <c r="T81" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="U81" s="140"/>
       <c r="V81" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('80', 'qEnd1','frmyeartomin', 'tblMainQues','mv¶vrKvi ‡kl Kivi mgq','Interview end time ','','qTotal1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('80', 'qStart3','frmyeartomin', 'tblMainQues','mv¶vrKvi শুরু Kivimgq','Interview start time','','qEnd3','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -5979,7 +6017,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C82" t="s">
         <v>34</v>
@@ -5994,7 +6032,7 @@
         <v>191</v>
       </c>
       <c r="H82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R82" s="140" t="s">
         <v>42</v>
@@ -6008,7 +6046,7 @@
       <c r="U82" s="140"/>
       <c r="V82" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('81', 'qEnd2','frmyeartomin', 'tblMainQues','mv¶vrKvi ‡kl Kivi mgq','Interview end time ','','qTotal2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('81', 'qEnd1','frmyeartomin', 'tblMainQues','mv¶vrKvi ‡kl Kivi mgq','Interview end time ','','qTotal1','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -6016,7 +6054,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C83" t="s">
         <v>34</v>
@@ -6031,7 +6069,7 @@
         <v>191</v>
       </c>
       <c r="H83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R83" s="140" t="s">
         <v>42</v>
@@ -6045,15 +6083,15 @@
       <c r="U83" s="140"/>
       <c r="V83" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('82', 'qEnd3','frmyeartomin', 'tblMainQues','mv¶vrKvi ‡kl Kivi mgq','Interview end time ','','qTotal3','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" ht="31.5">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('82', 'qEnd2','frmyeartomin', 'tblMainQues','mv¶vrKvi ‡kl Kivi mgq','Interview end time ','','qTotal2','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="140">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C84" t="s">
         <v>34</v>
@@ -6062,13 +6100,13 @@
         <v>45</v>
       </c>
       <c r="E84" s="122" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F84" s="121" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H84" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="R84" s="140" t="s">
         <v>42</v>
@@ -6082,7 +6120,7 @@
       <c r="U84" s="140"/>
       <c r="V84" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('83', 'qTotal1','frmyeartomin', 'tblMainQues','mv¶vrKvi MÖn‡Yi me©‡gvU mgq','Total duration of interview ','','qSup','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('83', 'qEnd3','frmyeartomin', 'tblMainQues','mv¶vrKvi ‡kl Kivi mgq','Interview end time ','','qTotal3','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="85" spans="1:22" ht="31.5">
@@ -6090,7 +6128,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C85" t="s">
         <v>34</v>
@@ -6119,7 +6157,7 @@
       <c r="U85" s="140"/>
       <c r="V85" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('84', 'qTotal2','frmyeartomin', 'tblMainQues','mv¶vrKvi MÖn‡Yi me©‡gvU mgq','Total duration of interview ','','qSup','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('84', 'qTotal1','frmyeartomin', 'tblMainQues','mv¶vrKvi MÖn‡Yi me©‡gvU mgq','Total duration of interview ','','qSup','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="31.5">
@@ -6127,7 +6165,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C86" t="s">
         <v>34</v>
@@ -6156,30 +6194,30 @@
       <c r="U86" s="140"/>
       <c r="V86" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('85', 'qTotal3','frmyeartomin', 'tblMainQues','mv¶vrKvi MÖn‡Yi me©‡gvU mgq','Total duration of interview ','','qSup','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22">
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('85', 'qTotal2','frmyeartomin', 'tblMainQues','mv¶vrKvi MÖn‡Yi me©‡gvU mgq','Total duration of interview ','','qSup','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="31.5">
       <c r="A87" s="140">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
-      </c>
-      <c r="C87" s="140" t="s">
-        <v>131</v>
+        <v>203</v>
+      </c>
+      <c r="C87" t="s">
+        <v>34</v>
       </c>
       <c r="D87" t="s">
         <v>45</v>
       </c>
       <c r="E87" s="122" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F87" s="121" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R87" s="140" t="s">
         <v>42</v>
@@ -6193,7 +6231,7 @@
       <c r="U87" s="140"/>
       <c r="V87" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('86', 'qSup','frmcombobox', 'tblMainQues','সুপারভাইজর আইডি','SUPERVISOR ID','','qField','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('86', 'qTotal3','frmyeartomin', 'tblMainQues','mv¶vrKvi MÖn‡Yi me©‡gvU mgq','Total duration of interview ','','qSup','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -6201,7 +6239,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C88" s="140" t="s">
         <v>131</v>
@@ -6210,13 +6248,13 @@
         <v>45</v>
       </c>
       <c r="E88" s="122" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F88" s="121" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R88" s="140" t="s">
         <v>42</v>
@@ -6230,7 +6268,44 @@
       <c r="U88" s="140"/>
       <c r="V88" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('87', 'qField','frmcombobox', 'tblMainQues','ফিল্ডএডিটর আইডি ','FIELD EDITOR ID','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('87', 'qSup','frmcombobox', 'tblMainQues','সুপারভাইজর আইডি','SUPERVISOR ID','','qField','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" s="140">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="140" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89" s="122" t="s">
+        <v>197</v>
+      </c>
+      <c r="F89" s="121" t="s">
+        <v>196</v>
+      </c>
+      <c r="H89" t="s">
+        <v>200</v>
+      </c>
+      <c r="R89" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="S89" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="T89" s="140" t="s">
+        <v>43</v>
+      </c>
+      <c r="U89" s="140"/>
+      <c r="V89" s="140" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('88', 'qField','frmcombobox', 'tblMainQues','ফিল্ডএডিটর আইডি ','FIELD EDITOR ID','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
   </sheetData>
@@ -6241,10 +6316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1305"/>
+  <dimension ref="A1:H1310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7587,109 +7662,114 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('58','q107', '96.OTHERS (SPECIFY)','96.Ab¨vb¨ (wbw`©ó Kiæb)','96','q107Other');</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="25.5">
+    <row r="60" spans="1:7" s="140" customFormat="1" ht="25.5">
       <c r="A60" s="38">
         <v>59</v>
       </c>
-      <c r="B60" s="116" t="s">
-        <v>307</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E60" s="42">
+      <c r="B60" s="140" t="s">
+        <v>376</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="E60" s="129">
         <v>1</v>
       </c>
+      <c r="F60" s="141"/>
       <c r="G60" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('59','q201', '1.AGREE','1.GKgZ','1','');</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('59','q108', '1. MARRIED','1. weevwnZ','1','');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="140" customFormat="1" ht="25.5">
       <c r="A61" s="38">
         <v>60</v>
       </c>
-      <c r="B61" s="116" t="s">
-        <v>307</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="42">
+      <c r="B61" s="140" t="s">
+        <v>376</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="E61" s="129">
         <v>2</v>
       </c>
+      <c r="F61" s="141"/>
       <c r="G61" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('60','q201', '2.DISAGREE','2.wØgZ','2','');</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('60','q108', '2. DIVORCED','2. ZvjvKcÖvß','2','');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="140" customFormat="1" ht="25.5">
       <c r="A62" s="38">
         <v>61</v>
       </c>
-      <c r="B62" s="116" t="s">
-        <v>307</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="42">
-        <v>8</v>
-      </c>
+      <c r="B62" s="140" t="s">
+        <v>376</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="E62" s="129">
+        <v>3</v>
+      </c>
+      <c r="F62" s="141"/>
       <c r="G62" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('61','q201', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('61','q108', '3. SEPARATED ','3. wew”Qbœ/Avjv`v _v‡Kb','3','');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="140" customFormat="1" ht="25.5">
       <c r="A63" s="38">
         <v>62</v>
       </c>
-      <c r="B63" s="116" t="s">
-        <v>307</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" s="42">
-        <v>9</v>
-      </c>
+      <c r="B63" s="140" t="s">
+        <v>376</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E63" s="129">
+        <v>4</v>
+      </c>
+      <c r="F63" s="141"/>
       <c r="G63" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('62','q201', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('62','q108', '4. WIDOW','4. wecwZœK','4','');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="140" customFormat="1" ht="25.5">
       <c r="A64" s="38">
         <v>63</v>
       </c>
-      <c r="B64" s="116" t="s">
-        <v>308</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="E64" s="46">
-        <v>1</v>
-      </c>
+      <c r="B64" s="140" t="s">
+        <v>376</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="E64" s="129">
+        <v>5</v>
+      </c>
+      <c r="F64" s="141"/>
       <c r="G64" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('63','q202', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('63','q108', '5. NEVER MARRIED','5. KLbI we‡q K‡ibwb','5','');</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="25.5">
@@ -7697,20 +7777,20 @@
         <v>64</v>
       </c>
       <c r="B65" s="116" t="s">
-        <v>308</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="E65" s="46">
-        <v>2</v>
+        <v>307</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="42">
+        <v>1</v>
       </c>
       <c r="G65" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('64','q202', '2.DISAGREE','2.wØgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('64','q201', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="25.5">
@@ -7718,20 +7798,20 @@
         <v>65</v>
       </c>
       <c r="B66" s="116" t="s">
-        <v>308</v>
-      </c>
-      <c r="C66" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E66" s="46">
-        <v>8</v>
+        <v>307</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="42">
+        <v>2</v>
       </c>
       <c r="G66" s="125" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('65','q202', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('65','q201', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="25.5">
@@ -7739,20 +7819,20 @@
         <v>66</v>
       </c>
       <c r="B67" s="116" t="s">
-        <v>308</v>
-      </c>
-      <c r="C67" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" s="46">
-        <v>9</v>
+        <v>307</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="42">
+        <v>8</v>
       </c>
       <c r="G67" s="125" t="str">
         <f t="shared" ref="G67:G130" si="1">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A67&amp;"','" &amp;B67&amp;"', '" &amp;D67&amp;"','" &amp;C67&amp;"','" &amp;E67&amp;"','"&amp;F67&amp;"');"</f>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('66','q202', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('66','q201', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="25.5">
@@ -7760,20 +7840,20 @@
         <v>67</v>
       </c>
       <c r="B68" s="116" t="s">
-        <v>309</v>
-      </c>
-      <c r="C68" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="E68" s="50">
-        <v>1</v>
+        <v>307</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" s="42">
+        <v>9</v>
       </c>
       <c r="G68" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('67','q203', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('67','q201', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="25.5">
@@ -7781,21 +7861,20 @@
         <v>68</v>
       </c>
       <c r="B69" s="116" t="s">
-        <v>309</v>
-      </c>
-      <c r="C69" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="E69" s="50">
-        <v>2</v>
-      </c>
-      <c r="F69" s="4"/>
+        <v>308</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="46">
+        <v>1</v>
+      </c>
       <c r="G69" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('68','q203', '2.DISAGREE','2.wØgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('68','q202', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="25.5">
@@ -7803,20 +7882,20 @@
         <v>69</v>
       </c>
       <c r="B70" s="116" t="s">
-        <v>309</v>
-      </c>
-      <c r="C70" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="E70" s="50">
-        <v>8</v>
+        <v>308</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" s="46">
+        <v>2</v>
       </c>
       <c r="G70" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('69','q203', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('69','q202', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="25.5">
@@ -7824,20 +7903,20 @@
         <v>70</v>
       </c>
       <c r="B71" s="116" t="s">
-        <v>309</v>
-      </c>
-      <c r="C71" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="E71" s="50">
-        <v>9</v>
+        <v>308</v>
+      </c>
+      <c r="C71" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="46">
+        <v>8</v>
       </c>
       <c r="G71" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('70','q203', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('70','q202', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="25.5">
@@ -7845,20 +7924,20 @@
         <v>71</v>
       </c>
       <c r="B72" s="116" t="s">
-        <v>310</v>
-      </c>
-      <c r="C72" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="D72" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E72" s="54">
-        <v>1</v>
+        <v>308</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="46">
+        <v>9</v>
       </c>
       <c r="G72" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('71','q204', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('71','q202', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="25.5">
@@ -7866,20 +7945,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="116" t="s">
-        <v>310</v>
-      </c>
-      <c r="C73" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="E73" s="54">
-        <v>2</v>
+        <v>309</v>
+      </c>
+      <c r="C73" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="50">
+        <v>1</v>
       </c>
       <c r="G73" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('72','q204', '2.DISAGREE','2.wØgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('72','q203', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="25.5">
@@ -7887,20 +7966,21 @@
         <v>73</v>
       </c>
       <c r="B74" s="116" t="s">
-        <v>310</v>
-      </c>
-      <c r="C74" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="E74" s="54">
-        <v>8</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C74" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="50">
+        <v>2</v>
+      </c>
+      <c r="F74" s="4"/>
       <c r="G74" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('73','q204', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('73','q203', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="25.5">
@@ -7908,20 +7988,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="116" t="s">
-        <v>310</v>
-      </c>
-      <c r="C75" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="D75" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="E75" s="54">
-        <v>9</v>
+        <v>309</v>
+      </c>
+      <c r="C75" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="50">
+        <v>8</v>
       </c>
       <c r="G75" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('74','q204', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('74','q203', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="25.5">
@@ -7929,20 +8009,20 @@
         <v>75</v>
       </c>
       <c r="B76" s="116" t="s">
-        <v>311</v>
-      </c>
-      <c r="C76" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="D76" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E76" s="58">
-        <v>1</v>
+        <v>309</v>
+      </c>
+      <c r="C76" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="50">
+        <v>9</v>
       </c>
       <c r="G76" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('75','q205', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('75','q203', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="25.5">
@@ -7950,21 +8030,20 @@
         <v>76</v>
       </c>
       <c r="B77" s="116" t="s">
-        <v>311</v>
-      </c>
-      <c r="C77" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D77" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E77" s="58">
-        <v>2</v>
-      </c>
-      <c r="F77" s="3"/>
+        <v>310</v>
+      </c>
+      <c r="C77" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="54">
+        <v>1</v>
+      </c>
       <c r="G77" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('76','q205', '2.DISAGREE','2.wØgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('76','q204', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="25.5">
@@ -7972,20 +8051,20 @@
         <v>77</v>
       </c>
       <c r="B78" s="116" t="s">
-        <v>311</v>
-      </c>
-      <c r="C78" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D78" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="E78" s="58">
-        <v>8</v>
+        <v>310</v>
+      </c>
+      <c r="C78" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" s="54">
+        <v>2</v>
       </c>
       <c r="G78" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('77','q205', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('77','q204', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="25.5">
@@ -7993,20 +8072,20 @@
         <v>78</v>
       </c>
       <c r="B79" s="116" t="s">
-        <v>311</v>
-      </c>
-      <c r="C79" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D79" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="E79" s="58">
-        <v>9</v>
+        <v>310</v>
+      </c>
+      <c r="C79" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79" s="54">
+        <v>8</v>
       </c>
       <c r="G79" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('78','q205', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('78','q204', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="25.5">
@@ -8014,20 +8093,20 @@
         <v>79</v>
       </c>
       <c r="B80" s="116" t="s">
-        <v>312</v>
-      </c>
-      <c r="C80" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="E80" s="62">
-        <v>1</v>
+        <v>310</v>
+      </c>
+      <c r="C80" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E80" s="54">
+        <v>9</v>
       </c>
       <c r="G80" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('79','q206', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('79','q204', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="25.5">
@@ -8035,20 +8114,20 @@
         <v>80</v>
       </c>
       <c r="B81" s="116" t="s">
-        <v>312</v>
-      </c>
-      <c r="C81" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="E81" s="62">
-        <v>2</v>
+        <v>311</v>
+      </c>
+      <c r="C81" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" s="58">
+        <v>1</v>
       </c>
       <c r="G81" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('80','q206', '2.DISAGREE','2.wØgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('80','q205', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="25.5">
@@ -8056,20 +8135,21 @@
         <v>81</v>
       </c>
       <c r="B82" s="116" t="s">
-        <v>312</v>
-      </c>
-      <c r="C82" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="D82" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="E82" s="62">
-        <v>8</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C82" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="58">
+        <v>2</v>
+      </c>
+      <c r="F82" s="3"/>
       <c r="G82" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('81','q206', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('81','q205', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="25.5">
@@ -8077,20 +8157,20 @@
         <v>82</v>
       </c>
       <c r="B83" s="116" t="s">
-        <v>312</v>
-      </c>
-      <c r="C83" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="E83" s="62">
-        <v>9</v>
+        <v>311</v>
+      </c>
+      <c r="C83" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E83" s="58">
+        <v>8</v>
       </c>
       <c r="G83" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('82','q206', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('82','q205', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="25.5">
@@ -8098,20 +8178,20 @@
         <v>83</v>
       </c>
       <c r="B84" s="116" t="s">
-        <v>313</v>
-      </c>
-      <c r="C84" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="D84" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84" s="66">
-        <v>1</v>
+        <v>311</v>
+      </c>
+      <c r="C84" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E84" s="58">
+        <v>9</v>
       </c>
       <c r="G84" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('83','q207', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('83','q205', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="25.5">
@@ -8119,20 +8199,20 @@
         <v>84</v>
       </c>
       <c r="B85" s="116" t="s">
-        <v>313</v>
-      </c>
-      <c r="C85" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85" s="66">
-        <v>2</v>
+        <v>312</v>
+      </c>
+      <c r="C85" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" s="62">
+        <v>1</v>
       </c>
       <c r="G85" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('84','q207', '2.DISAGREE','2.wØgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('84','q206', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="25.5">
@@ -8140,20 +8220,20 @@
         <v>85</v>
       </c>
       <c r="B86" s="116" t="s">
-        <v>313</v>
-      </c>
-      <c r="C86" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="D86" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="E86" s="66">
-        <v>8</v>
+        <v>312</v>
+      </c>
+      <c r="C86" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="62">
+        <v>2</v>
       </c>
       <c r="G86" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('85','q207', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('85','q206', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="25.5">
@@ -8161,20 +8241,20 @@
         <v>86</v>
       </c>
       <c r="B87" s="116" t="s">
-        <v>313</v>
-      </c>
-      <c r="C87" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="E87" s="66">
-        <v>9</v>
+        <v>312</v>
+      </c>
+      <c r="C87" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E87" s="62">
+        <v>8</v>
       </c>
       <c r="G87" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('86','q207', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('86','q206', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="25.5">
@@ -8182,20 +8262,20 @@
         <v>87</v>
       </c>
       <c r="B88" s="116" t="s">
-        <v>314</v>
-      </c>
-      <c r="C88" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="D88" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="E88" s="70">
-        <v>1</v>
+        <v>312</v>
+      </c>
+      <c r="C88" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E88" s="62">
+        <v>9</v>
       </c>
       <c r="G88" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('87','q208', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('87','q206', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="25.5">
@@ -8203,20 +8283,20 @@
         <v>88</v>
       </c>
       <c r="B89" s="116" t="s">
-        <v>314</v>
-      </c>
-      <c r="C89" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="D89" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="E89" s="70">
-        <v>2</v>
+        <v>313</v>
+      </c>
+      <c r="C89" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" s="66">
+        <v>1</v>
       </c>
       <c r="G89" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('88','q208', '2.DISAGREE','2.wØgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('88','q207', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="25.5">
@@ -8224,20 +8304,20 @@
         <v>89</v>
       </c>
       <c r="B90" s="116" t="s">
-        <v>314</v>
-      </c>
-      <c r="C90" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D90" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="E90" s="70">
-        <v>8</v>
+        <v>313</v>
+      </c>
+      <c r="C90" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" s="66">
+        <v>2</v>
       </c>
       <c r="G90" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('89','q208', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('89','q207', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="25.5">
@@ -8245,20 +8325,20 @@
         <v>90</v>
       </c>
       <c r="B91" s="116" t="s">
-        <v>314</v>
-      </c>
-      <c r="C91" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="D91" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="E91" s="70">
-        <v>9</v>
+        <v>313</v>
+      </c>
+      <c r="C91" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E91" s="66">
+        <v>8</v>
       </c>
       <c r="G91" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('90','q208', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('90','q207', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="25.5">
@@ -8266,20 +8346,20 @@
         <v>91</v>
       </c>
       <c r="B92" s="116" t="s">
-        <v>315</v>
-      </c>
-      <c r="C92" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D92" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="E92" s="74">
-        <v>1</v>
+        <v>313</v>
+      </c>
+      <c r="C92" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E92" s="66">
+        <v>9</v>
       </c>
       <c r="G92" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('91','q209', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('91','q207', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="25.5">
@@ -8287,20 +8367,20 @@
         <v>92</v>
       </c>
       <c r="B93" s="116" t="s">
-        <v>315</v>
-      </c>
-      <c r="C93" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D93" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="E93" s="74">
-        <v>2</v>
+        <v>314</v>
+      </c>
+      <c r="C93" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="E93" s="70">
+        <v>1</v>
       </c>
       <c r="G93" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('92','q209', '2.DISAGREE','2.wØgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('92','q208', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="25.5">
@@ -8308,21 +8388,20 @@
         <v>93</v>
       </c>
       <c r="B94" s="116" t="s">
-        <v>315</v>
-      </c>
-      <c r="C94" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="D94" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="E94" s="74">
-        <v>8</v>
-      </c>
-      <c r="F94" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="C94" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="70">
+        <v>2</v>
+      </c>
       <c r="G94" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('93','q209', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('93','q208', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="25.5">
@@ -8330,20 +8409,20 @@
         <v>94</v>
       </c>
       <c r="B95" s="116" t="s">
-        <v>315</v>
-      </c>
-      <c r="C95" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="D95" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="E95" s="74">
-        <v>9</v>
+        <v>314</v>
+      </c>
+      <c r="C95" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D95" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E95" s="70">
+        <v>8</v>
       </c>
       <c r="G95" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('94','q209', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('94','q208', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="25.5">
@@ -8351,700 +8430,700 @@
         <v>95</v>
       </c>
       <c r="B96" s="116" t="s">
-        <v>316</v>
-      </c>
-      <c r="C96" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="D96" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="E96" s="78">
-        <v>1</v>
+        <v>314</v>
+      </c>
+      <c r="C96" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E96" s="70">
+        <v>9</v>
       </c>
       <c r="G96" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('95','q210', '1.AGREE','1.GKgZ','1','');</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('95','q208', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="25.5">
       <c r="A97" s="38">
         <v>96</v>
       </c>
       <c r="B97" s="116" t="s">
-        <v>316</v>
-      </c>
-      <c r="C97" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="D97" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="E97" s="78">
-        <v>2</v>
+        <v>315</v>
+      </c>
+      <c r="C97" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E97" s="74">
+        <v>1</v>
       </c>
       <c r="G97" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('96','q210', '2.DISAGREE','2.wØgZ','2','');</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('96','q209', '1.AGREE','1.GKgZ','1','');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="25.5">
       <c r="A98" s="38">
         <v>97</v>
       </c>
       <c r="B98" s="116" t="s">
-        <v>316</v>
-      </c>
-      <c r="C98" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="D98" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="E98" s="78">
-        <v>8</v>
+        <v>315</v>
+      </c>
+      <c r="C98" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" s="74">
+        <v>2</v>
       </c>
       <c r="G98" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('97','q210', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('97','q209', '2.DISAGREE','2.wØgZ','2','');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="25.5">
       <c r="A99" s="38">
         <v>98</v>
       </c>
       <c r="B99" s="116" t="s">
-        <v>316</v>
-      </c>
-      <c r="C99" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="D99" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="E99" s="78">
-        <v>9</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C99" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D99" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="E99" s="74">
+        <v>8</v>
+      </c>
+      <c r="F99" s="4"/>
       <c r="G99" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('98','q210', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('98','q209', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="25.5">
       <c r="A100" s="38">
         <v>99</v>
       </c>
       <c r="B100" s="116" t="s">
-        <v>317</v>
-      </c>
-      <c r="C100" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="D100" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="E100" s="82">
-        <v>1</v>
+        <v>315</v>
+      </c>
+      <c r="C100" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E100" s="74">
+        <v>9</v>
       </c>
       <c r="G100" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('99','q211', '1.AGREE','1.GKgZ','1','');</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('99','q209', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="25.5">
       <c r="A101" s="38">
         <v>100</v>
       </c>
       <c r="B101" s="116" t="s">
-        <v>317</v>
-      </c>
-      <c r="C101" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="D101" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="E101" s="82">
-        <v>2</v>
+        <v>316</v>
+      </c>
+      <c r="C101" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" s="78">
+        <v>1</v>
       </c>
       <c r="G101" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('100','q211', '2.DISAGREE','2.wØgZ','2','');</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('100','q210', '1.AGREE','1.GKgZ','1','');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="25.5">
       <c r="A102" s="38">
         <v>101</v>
       </c>
       <c r="B102" s="116" t="s">
-        <v>317</v>
-      </c>
-      <c r="C102" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="D102" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="E102" s="82">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3"/>
+        <v>316</v>
+      </c>
+      <c r="C102" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D102" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" s="78">
+        <v>2</v>
+      </c>
       <c r="G102" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('101','q211', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('101','q210', '2.DISAGREE','2.wØgZ','2','');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="25.5">
       <c r="A103" s="38">
         <v>102</v>
       </c>
       <c r="B103" s="116" t="s">
-        <v>317</v>
-      </c>
-      <c r="C103" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="D103" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="E103" s="82">
-        <v>9</v>
+        <v>316</v>
+      </c>
+      <c r="C103" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="E103" s="78">
+        <v>8</v>
       </c>
       <c r="G103" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('102','q211', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('102','q210', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="25.5">
       <c r="A104" s="38">
         <v>103</v>
       </c>
       <c r="B104" s="116" t="s">
-        <v>318</v>
-      </c>
-      <c r="C104" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D104" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="E104" s="86">
-        <v>1</v>
+        <v>316</v>
+      </c>
+      <c r="C104" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="E104" s="78">
+        <v>9</v>
       </c>
       <c r="G104" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('103','q212', '1.AGREE','1.GKgZ','1','');</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('103','q210', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="25.5">
       <c r="A105" s="38">
         <v>104</v>
       </c>
       <c r="B105" s="116" t="s">
-        <v>318</v>
-      </c>
-      <c r="C105" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="D105" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="E105" s="86">
-        <v>2</v>
+        <v>317</v>
+      </c>
+      <c r="C105" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="D105" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="E105" s="82">
+        <v>1</v>
       </c>
       <c r="G105" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('104','q212', '2.DISAGREE','2.wØgZ','2','');</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('104','q211', '1.AGREE','1.GKgZ','1','');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="25.5">
       <c r="A106" s="38">
         <v>105</v>
       </c>
       <c r="B106" s="116" t="s">
-        <v>318</v>
-      </c>
-      <c r="C106" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D106" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="E106" s="86">
-        <v>8</v>
+        <v>317</v>
+      </c>
+      <c r="C106" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E106" s="82">
+        <v>2</v>
       </c>
       <c r="G106" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('105','q212', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('105','q211', '2.DISAGREE','2.wØgZ','2','');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="25.5">
       <c r="A107" s="38">
         <v>106</v>
       </c>
       <c r="B107" s="116" t="s">
-        <v>318</v>
-      </c>
-      <c r="C107" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="D107" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="E107" s="86">
-        <v>9</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C107" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="E107" s="82">
+        <v>8</v>
+      </c>
+      <c r="F107" s="3"/>
       <c r="G107" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('106','q212', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('106','q211', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="25.5">
       <c r="A108" s="38">
         <v>107</v>
       </c>
       <c r="B108" s="116" t="s">
-        <v>319</v>
-      </c>
-      <c r="C108" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="D108" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="E108" s="90">
-        <v>1</v>
+        <v>317</v>
+      </c>
+      <c r="C108" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D108" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="E108" s="82">
+        <v>9</v>
       </c>
       <c r="G108" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('107','q213', '1.AGREE','1.GKgZ','1','');</v>
-      </c>
-      <c r="H108" s="6"/>
-    </row>
-    <row r="109" spans="1:8" s="7" customFormat="1" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('107','q211', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="25.5">
       <c r="A109" s="38">
         <v>108</v>
       </c>
       <c r="B109" s="116" t="s">
-        <v>319</v>
-      </c>
-      <c r="C109" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="D109" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="E109" s="90">
-        <v>2</v>
-      </c>
-      <c r="F109" s="6"/>
+        <v>318</v>
+      </c>
+      <c r="C109" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="E109" s="86">
+        <v>1</v>
+      </c>
       <c r="G109" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('108','q213', '2.DISAGREE','2.wØgZ','2','');</v>
-      </c>
-      <c r="H109" s="6"/>
-    </row>
-    <row r="110" spans="1:8" s="7" customFormat="1" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('108','q212', '1.AGREE','1.GKgZ','1','');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="25.5">
       <c r="A110" s="38">
         <v>109</v>
       </c>
       <c r="B110" s="116" t="s">
-        <v>319</v>
-      </c>
-      <c r="C110" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="D110" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="E110" s="90">
-        <v>8</v>
+        <v>318</v>
+      </c>
+      <c r="C110" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="E110" s="86">
+        <v>2</v>
       </c>
       <c r="G110" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('109','q213', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
-      </c>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="1:8" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('109','q212', '2.DISAGREE','2.wØgZ','2','');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="25.5">
       <c r="A111" s="38">
         <v>110</v>
       </c>
       <c r="B111" s="116" t="s">
-        <v>319</v>
-      </c>
-      <c r="C111" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="D111" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="E111" s="90">
-        <v>9</v>
+        <v>318</v>
+      </c>
+      <c r="C111" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D111" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="E111" s="86">
+        <v>8</v>
       </c>
       <c r="G111" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('110','q213', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('110','q212', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="25.5">
       <c r="A112" s="38">
         <v>111</v>
       </c>
       <c r="B112" s="116" t="s">
-        <v>320</v>
-      </c>
-      <c r="C112" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="D112" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="E112" s="94">
-        <v>1</v>
+        <v>318</v>
+      </c>
+      <c r="C112" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D112" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="E112" s="86">
+        <v>9</v>
       </c>
       <c r="G112" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('111','q214', '1.AGREE','1.GKgZ','1','');</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('111','q212', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="25.5">
       <c r="A113" s="38">
         <v>112</v>
       </c>
       <c r="B113" s="116" t="s">
-        <v>320</v>
-      </c>
-      <c r="C113" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="D113" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="E113" s="94">
-        <v>2</v>
+        <v>319</v>
+      </c>
+      <c r="C113" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E113" s="90">
+        <v>1</v>
       </c>
       <c r="G113" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('112','q214', '2.DISAGREE','2.wØgZ','2','');</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('112','q213', '1.AGREE','1.GKgZ','1','');</v>
+      </c>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="1:8" s="7" customFormat="1" ht="25.5">
       <c r="A114" s="38">
         <v>113</v>
       </c>
       <c r="B114" s="116" t="s">
-        <v>320</v>
-      </c>
-      <c r="C114" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="D114" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="E114" s="94">
-        <v>8</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C114" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="D114" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="E114" s="90">
+        <v>2</v>
+      </c>
+      <c r="F114" s="6"/>
       <c r="G114" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('113','q214', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('113','q213', '2.DISAGREE','2.wØgZ','2','');</v>
+      </c>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="1:8" s="7" customFormat="1" ht="25.5">
       <c r="A115" s="38">
         <v>114</v>
       </c>
       <c r="B115" s="116" t="s">
-        <v>320</v>
-      </c>
-      <c r="C115" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="D115" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E115" s="94">
-        <v>9</v>
+        <v>319</v>
+      </c>
+      <c r="C115" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="D115" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="E115" s="90">
+        <v>8</v>
       </c>
       <c r="G115" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('114','q214', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('114','q213', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+      </c>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:8" ht="25.5">
       <c r="A116" s="38">
         <v>115</v>
       </c>
       <c r="B116" s="116" t="s">
-        <v>321</v>
-      </c>
-      <c r="C116" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="D116" s="96" t="s">
-        <v>82</v>
-      </c>
-      <c r="E116" s="98">
-        <v>1</v>
+        <v>319</v>
+      </c>
+      <c r="C116" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D116" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="E116" s="90">
+        <v>9</v>
       </c>
       <c r="G116" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('115','q215', '1.AGREE','1.GKgZ','1','');</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('115','q213', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="25.5">
       <c r="A117" s="38">
         <v>116</v>
       </c>
       <c r="B117" s="116" t="s">
-        <v>321</v>
-      </c>
-      <c r="C117" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="D117" s="96" t="s">
-        <v>84</v>
-      </c>
-      <c r="E117" s="98">
-        <v>2</v>
+        <v>320</v>
+      </c>
+      <c r="C117" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="D117" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="E117" s="94">
+        <v>1</v>
       </c>
       <c r="G117" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('116','q215', '2.DISAGREE','2.wØgZ','2','');</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="7" customFormat="1" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('116','q214', '1.AGREE','1.GKgZ','1','');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="25.5">
       <c r="A118" s="38">
         <v>117</v>
       </c>
       <c r="B118" s="116" t="s">
-        <v>321</v>
-      </c>
-      <c r="C118" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="D118" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="E118" s="98">
-        <v>8</v>
+        <v>320</v>
+      </c>
+      <c r="C118" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="D118" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E118" s="94">
+        <v>2</v>
       </c>
       <c r="G118" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('117','q215', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="7" customFormat="1" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('117','q214', '2.DISAGREE','2.wØgZ','2','');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="25.5">
       <c r="A119" s="38">
         <v>118</v>
       </c>
       <c r="B119" s="116" t="s">
-        <v>321</v>
-      </c>
-      <c r="C119" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="D119" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="E119" s="98">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="C119" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="D119" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="E119" s="94">
+        <v>8</v>
       </c>
       <c r="G119" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('118','q215', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="7" customFormat="1" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('118','q214', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="25.5">
       <c r="A120" s="38">
         <v>119</v>
       </c>
       <c r="B120" s="116" t="s">
-        <v>322</v>
-      </c>
-      <c r="C120" s="101" t="s">
-        <v>81</v>
-      </c>
-      <c r="D120" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="E120" s="102">
-        <v>1</v>
+        <v>320</v>
+      </c>
+      <c r="C120" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="D120" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="E120" s="94">
+        <v>9</v>
       </c>
       <c r="G120" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('119','q216', '1.AGREE','1.GKgZ','1','');</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="7" customFormat="1" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('119','q214', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="25.5">
       <c r="A121" s="38">
         <v>120</v>
       </c>
       <c r="B121" s="116" t="s">
-        <v>322</v>
-      </c>
-      <c r="C121" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="D121" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="E121" s="102">
-        <v>2</v>
+        <v>321</v>
+      </c>
+      <c r="C121" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="D121" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="E121" s="98">
+        <v>1</v>
       </c>
       <c r="G121" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('120','q216', '2.DISAGREE','2.wØgZ','2','');</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('120','q215', '1.AGREE','1.GKgZ','1','');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="25.5">
       <c r="A122" s="38">
         <v>121</v>
       </c>
       <c r="B122" s="116" t="s">
-        <v>322</v>
-      </c>
-      <c r="C122" s="101" t="s">
-        <v>77</v>
-      </c>
-      <c r="D122" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="E122" s="102">
-        <v>8</v>
-      </c>
-      <c r="F122" s="3"/>
+        <v>321</v>
+      </c>
+      <c r="C122" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="D122" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="E122" s="98">
+        <v>2</v>
+      </c>
       <c r="G122" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('121','q216', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('121','q215', '2.DISAGREE','2.wØgZ','2','');</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="7" customFormat="1" ht="25.5">
       <c r="A123" s="38">
         <v>122</v>
       </c>
       <c r="B123" s="116" t="s">
-        <v>322</v>
-      </c>
-      <c r="C123" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="D123" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="E123" s="102">
-        <v>9</v>
-      </c>
-      <c r="F123" s="3"/>
+        <v>321</v>
+      </c>
+      <c r="C123" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="D123" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="E123" s="98">
+        <v>8</v>
+      </c>
       <c r="G123" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('122','q216', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('122','q215', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="7" customFormat="1" ht="25.5">
       <c r="A124" s="38">
         <v>123</v>
       </c>
       <c r="B124" s="116" t="s">
-        <v>323</v>
-      </c>
-      <c r="C124" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="D124" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="E124" s="106">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="C124" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="D124" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="E124" s="98">
+        <v>9</v>
       </c>
       <c r="G124" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('123','q217', '1.AGREE','1.GKgZ','1','');</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('123','q215', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="7" customFormat="1" ht="25.5">
       <c r="A125" s="38">
         <v>124</v>
       </c>
       <c r="B125" s="116" t="s">
-        <v>323</v>
-      </c>
-      <c r="C125" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="D125" s="104" t="s">
-        <v>84</v>
-      </c>
-      <c r="E125" s="106">
-        <v>2</v>
+        <v>322</v>
+      </c>
+      <c r="C125" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="D125" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="E125" s="102">
+        <v>1</v>
       </c>
       <c r="G125" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('124','q217', '2.DISAGREE','2.wØgZ','2','');</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('124','q216', '1.AGREE','1.GKgZ','1','');</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="7" customFormat="1" ht="25.5">
       <c r="A126" s="38">
         <v>125</v>
       </c>
       <c r="B126" s="116" t="s">
-        <v>323</v>
-      </c>
-      <c r="C126" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="D126" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="E126" s="106">
-        <v>8</v>
+        <v>322</v>
+      </c>
+      <c r="C126" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="D126" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="E126" s="102">
+        <v>2</v>
       </c>
       <c r="G126" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('125','q217', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('125','q216', '2.DISAGREE','2.wØgZ','2','');</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="25.5">
       <c r="A127" s="38">
         <v>126</v>
       </c>
       <c r="B127" s="116" t="s">
-        <v>323</v>
-      </c>
-      <c r="C127" s="105" t="s">
-        <v>85</v>
-      </c>
-      <c r="D127" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="E127" s="106">
-        <v>9</v>
+        <v>322</v>
+      </c>
+      <c r="C127" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="D127" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="E127" s="102">
+        <v>8</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('126','q217', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('126','q216', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="25.5">
       <c r="A128" s="38">
         <v>127</v>
       </c>
       <c r="B128" s="116" t="s">
-        <v>324</v>
-      </c>
-      <c r="C128" s="109" t="s">
-        <v>81</v>
-      </c>
-      <c r="D128" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="E128" s="110">
-        <v>1</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C128" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="D128" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="E128" s="102">
+        <v>9</v>
+      </c>
+      <c r="F128" s="3"/>
       <c r="G128" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('127','q218', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('127','q216', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="25.5">
@@ -9052,20 +9131,20 @@
         <v>128</v>
       </c>
       <c r="B129" s="116" t="s">
-        <v>324</v>
-      </c>
-      <c r="C129" s="109" t="s">
-        <v>83</v>
-      </c>
-      <c r="D129" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="E129" s="110">
-        <v>2</v>
+        <v>323</v>
+      </c>
+      <c r="C129" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="D129" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="E129" s="106">
+        <v>1</v>
       </c>
       <c r="G129" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('128','q218', '2.DISAGREE','2.wØgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('128','q217', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="25.5">
@@ -9073,20 +9152,20 @@
         <v>129</v>
       </c>
       <c r="B130" s="116" t="s">
-        <v>324</v>
-      </c>
-      <c r="C130" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="D130" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="E130" s="110">
-        <v>8</v>
+        <v>323</v>
+      </c>
+      <c r="C130" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="D130" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="E130" s="106">
+        <v>2</v>
       </c>
       <c r="G130" s="125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('129','q218', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('129','q217', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="25.5">
@@ -9094,20 +9173,20 @@
         <v>130</v>
       </c>
       <c r="B131" s="116" t="s">
-        <v>324</v>
-      </c>
-      <c r="C131" s="109" t="s">
-        <v>85</v>
-      </c>
-      <c r="D131" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="E131" s="110">
-        <v>9</v>
+        <v>323</v>
+      </c>
+      <c r="C131" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="D131" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="E131" s="106">
+        <v>8</v>
       </c>
       <c r="G131" s="125" t="str">
         <f t="shared" ref="G131:G194" si="2">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A131&amp;"','" &amp;B131&amp;"', '" &amp;D131&amp;"','" &amp;C131&amp;"','" &amp;E131&amp;"','"&amp;F131&amp;"');"</f>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('130','q218', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('130','q217', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="25.5">
@@ -9115,20 +9194,21 @@
         <v>131</v>
       </c>
       <c r="B132" s="116" t="s">
-        <v>325</v>
-      </c>
-      <c r="C132" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="D132" s="112" t="s">
-        <v>82</v>
-      </c>
-      <c r="E132" s="114">
-        <v>1</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C132" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="D132" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="E132" s="106">
+        <v>9</v>
+      </c>
+      <c r="F132" s="3"/>
       <c r="G132" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('131','q219', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('131','q217', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="25.5">
@@ -9136,20 +9216,20 @@
         <v>132</v>
       </c>
       <c r="B133" s="116" t="s">
-        <v>325</v>
-      </c>
-      <c r="C133" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="D133" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="E133" s="114">
-        <v>2</v>
+        <v>324</v>
+      </c>
+      <c r="C133" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="D133" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="E133" s="110">
+        <v>1</v>
       </c>
       <c r="G133" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('132','q219', '2.DISAGREE','2.wØgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('132','q218', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="25.5">
@@ -9157,20 +9237,20 @@
         <v>133</v>
       </c>
       <c r="B134" s="116" t="s">
-        <v>325</v>
-      </c>
-      <c r="C134" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="D134" s="111" t="s">
-        <v>74</v>
-      </c>
-      <c r="E134" s="114">
-        <v>8</v>
+        <v>324</v>
+      </c>
+      <c r="C134" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="D134" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="E134" s="110">
+        <v>2</v>
       </c>
       <c r="G134" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('133','q219', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('133','q218', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="25.5">
@@ -9178,20 +9258,20 @@
         <v>134</v>
       </c>
       <c r="B135" s="116" t="s">
-        <v>325</v>
-      </c>
-      <c r="C135" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="D135" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="E135" s="114">
-        <v>9</v>
+        <v>324</v>
+      </c>
+      <c r="C135" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="D135" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="E135" s="110">
+        <v>8</v>
       </c>
       <c r="G135" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('134','q219', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('134','q218', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="25.5">
@@ -9199,20 +9279,20 @@
         <v>135</v>
       </c>
       <c r="B136" s="116" t="s">
-        <v>326</v>
-      </c>
-      <c r="C136" s="118" t="s">
-        <v>81</v>
-      </c>
-      <c r="D136" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="E136" s="119">
-        <v>1</v>
+        <v>324</v>
+      </c>
+      <c r="C136" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="D136" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="E136" s="110">
+        <v>9</v>
       </c>
       <c r="G136" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('135','q220', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('135','q218', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="25.5">
@@ -9220,21 +9300,20 @@
         <v>136</v>
       </c>
       <c r="B137" s="116" t="s">
-        <v>326</v>
-      </c>
-      <c r="C137" s="118" t="s">
-        <v>83</v>
-      </c>
-      <c r="D137" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="E137" s="119">
-        <v>2</v>
-      </c>
-      <c r="F137" s="3"/>
+        <v>325</v>
+      </c>
+      <c r="C137" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="E137" s="114">
+        <v>1</v>
+      </c>
       <c r="G137" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('136','q220', '2.DISAGREE','2.wØgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('136','q219', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="25.5">
@@ -9242,21 +9321,20 @@
         <v>137</v>
       </c>
       <c r="B138" s="116" t="s">
-        <v>326</v>
-      </c>
-      <c r="C138" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="D138" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="E138" s="119">
-        <v>8</v>
-      </c>
-      <c r="F138" s="3"/>
+        <v>325</v>
+      </c>
+      <c r="C138" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="D138" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="E138" s="114">
+        <v>2</v>
+      </c>
       <c r="G138" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('137','q220', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('137','q219', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="25.5">
@@ -9264,20 +9342,20 @@
         <v>138</v>
       </c>
       <c r="B139" s="116" t="s">
-        <v>326</v>
-      </c>
-      <c r="C139" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="D139" s="116" t="s">
-        <v>75</v>
-      </c>
-      <c r="E139" s="119">
-        <v>9</v>
+        <v>325</v>
+      </c>
+      <c r="C139" s="113" t="s">
+        <v>77</v>
+      </c>
+      <c r="D139" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="E139" s="114">
+        <v>8</v>
       </c>
       <c r="G139" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('138','q220', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('138','q219', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="25.5">
@@ -9285,41 +9363,41 @@
         <v>139</v>
       </c>
       <c r="B140" s="116" t="s">
-        <v>327</v>
-      </c>
-      <c r="C140" s="118" t="s">
-        <v>81</v>
-      </c>
-      <c r="D140" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="E140" s="119">
-        <v>1</v>
+        <v>325</v>
+      </c>
+      <c r="C140" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="D140" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="E140" s="114">
+        <v>9</v>
       </c>
       <c r="G140" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('139','q221', '1.AGREE','1.GKgZ','1','');</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" s="115" customFormat="1" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('139','q219', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="25.5">
       <c r="A141" s="38">
         <v>140</v>
       </c>
       <c r="B141" s="116" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C141" s="118" t="s">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="D141" s="117" t="s">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="E141" s="119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G141" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('140','q221', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('140','q220', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="25.5">
@@ -9327,20 +9405,21 @@
         <v>141</v>
       </c>
       <c r="B142" s="116" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C142" s="118" t="s">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="D142" s="117" t="s">
-        <v>350</v>
+        <v>84</v>
       </c>
       <c r="E142" s="119">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F142" s="3"/>
       <c r="G142" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('141','q221', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('141','q220', '2.DISAGREE','2.wØgZ','2','');</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="25.5">
@@ -9348,7 +9427,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="116" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C143" s="118" t="s">
         <v>77</v>
@@ -9359,9 +9438,10 @@
       <c r="E143" s="119">
         <v>8</v>
       </c>
+      <c r="F143" s="3"/>
       <c r="G143" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('142','q221', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('142','q220', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="25.5">
@@ -9369,7 +9449,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="116" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C144" s="118" t="s">
         <v>85</v>
@@ -9382,7 +9462,7 @@
       </c>
       <c r="G144" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('143','q221', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('143','q220', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="25.5">
@@ -9390,7 +9470,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="116" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C145" s="118" t="s">
         <v>81</v>
@@ -9403,15 +9483,15 @@
       </c>
       <c r="G145" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('144','q222', '1.AGREE','1.GKgZ','1','');</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="25.5">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('144','q221', '1.AGREE','1.GKgZ','1','');</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="115" customFormat="1" ht="25.5">
       <c r="A146" s="38">
         <v>145</v>
       </c>
       <c r="B146" s="116" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C146" s="118" t="s">
         <v>347</v>
@@ -9424,7 +9504,7 @@
       </c>
       <c r="G146" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('145','q222', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('145','q221', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="25.5">
@@ -9432,7 +9512,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="116" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C147" s="118" t="s">
         <v>349</v>
@@ -9445,7 +9525,7 @@
       </c>
       <c r="G147" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('146','q222', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('146','q221', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="25.5">
@@ -9453,7 +9533,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="116" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C148" s="118" t="s">
         <v>77</v>
@@ -9466,7 +9546,7 @@
       </c>
       <c r="G148" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('147','q222', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('147','q221', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="25.5">
@@ -9474,7 +9554,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="116" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C149" s="118" t="s">
         <v>85</v>
@@ -9487,7 +9567,7 @@
       </c>
       <c r="G149" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('148','q222', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('148','q221', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="25.5">
@@ -9495,7 +9575,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="116" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C150" s="118" t="s">
         <v>81</v>
@@ -9508,7 +9588,7 @@
       </c>
       <c r="G150" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('149','q223', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('149','q222', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="25.5">
@@ -9516,7 +9596,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="116" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C151" s="118" t="s">
         <v>347</v>
@@ -9529,7 +9609,7 @@
       </c>
       <c r="G151" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('150','q223', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('150','q222', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="25.5">
@@ -9537,7 +9617,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="116" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C152" s="118" t="s">
         <v>349</v>
@@ -9550,7 +9630,7 @@
       </c>
       <c r="G152" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('151','q223', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('151','q222', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="25.5">
@@ -9558,7 +9638,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="116" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C153" s="118" t="s">
         <v>77</v>
@@ -9571,7 +9651,7 @@
       </c>
       <c r="G153" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('152','q223', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('152','q222', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="25.5">
@@ -9579,7 +9659,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="116" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C154" s="118" t="s">
         <v>85</v>
@@ -9590,10 +9670,9 @@
       <c r="E154" s="119">
         <v>9</v>
       </c>
-      <c r="F154" s="8"/>
       <c r="G154" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('153','q223', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('153','q222', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="25.5">
@@ -9601,7 +9680,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="116" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C155" s="118" t="s">
         <v>81</v>
@@ -9614,7 +9693,7 @@
       </c>
       <c r="G155" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('154','q224', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('154','q223', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="25.5">
@@ -9622,7 +9701,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="116" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C156" s="118" t="s">
         <v>347</v>
@@ -9635,7 +9714,7 @@
       </c>
       <c r="G156" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('155','q224', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('155','q223', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="25.5">
@@ -9643,7 +9722,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="116" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C157" s="118" t="s">
         <v>349</v>
@@ -9656,7 +9735,7 @@
       </c>
       <c r="G157" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('156','q224', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('156','q223', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="25.5">
@@ -9664,7 +9743,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="116" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C158" s="118" t="s">
         <v>77</v>
@@ -9677,7 +9756,7 @@
       </c>
       <c r="G158" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('157','q224', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('157','q223', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="25.5">
@@ -9685,7 +9764,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="116" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C159" s="118" t="s">
         <v>85</v>
@@ -9696,9 +9775,10 @@
       <c r="E159" s="119">
         <v>9</v>
       </c>
+      <c r="F159" s="8"/>
       <c r="G159" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('158','q224', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('158','q223', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="25.5">
@@ -9706,7 +9786,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C160" s="118" t="s">
         <v>81</v>
@@ -9719,7 +9799,7 @@
       </c>
       <c r="G160" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('159','q225', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('159','q224', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="25.5">
@@ -9727,7 +9807,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C161" s="118" t="s">
         <v>347</v>
@@ -9740,7 +9820,7 @@
       </c>
       <c r="G161" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('160','q225', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('160','q224', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="25.5">
@@ -9748,7 +9828,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C162" s="118" t="s">
         <v>349</v>
@@ -9761,7 +9841,7 @@
       </c>
       <c r="G162" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('161','q225', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('161','q224', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="25.5">
@@ -9769,7 +9849,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C163" s="118" t="s">
         <v>77</v>
@@ -9782,7 +9862,7 @@
       </c>
       <c r="G163" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('162','q225', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('162','q224', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="25.5">
@@ -9790,7 +9870,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C164" s="118" t="s">
         <v>85</v>
@@ -9803,7 +9883,7 @@
       </c>
       <c r="G164" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('163','q225', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('163','q224', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="25.5">
@@ -9811,7 +9891,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C165" s="118" t="s">
         <v>81</v>
@@ -9824,7 +9904,7 @@
       </c>
       <c r="G165" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('164','q226', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('164','q225', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="25.5">
@@ -9832,7 +9912,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C166" s="118" t="s">
         <v>347</v>
@@ -9845,7 +9925,7 @@
       </c>
       <c r="G166" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('165','q226', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('165','q225', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="25.5">
@@ -9853,7 +9933,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C167" s="118" t="s">
         <v>349</v>
@@ -9866,7 +9946,7 @@
       </c>
       <c r="G167" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('166','q226', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('166','q225', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="25.5">
@@ -9874,7 +9954,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C168" s="118" t="s">
         <v>77</v>
@@ -9887,7 +9967,7 @@
       </c>
       <c r="G168" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('167','q226', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('167','q225', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="25.5">
@@ -9895,7 +9975,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C169" s="118" t="s">
         <v>85</v>
@@ -9908,7 +9988,7 @@
       </c>
       <c r="G169" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('168','q226', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('168','q225', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="25.5">
@@ -9916,7 +9996,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C170" s="118" t="s">
         <v>81</v>
@@ -9929,7 +10009,7 @@
       </c>
       <c r="G170" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('169','q227', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('169','q226', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="25.5">
@@ -9937,7 +10017,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C171" s="118" t="s">
         <v>347</v>
@@ -9950,7 +10030,7 @@
       </c>
       <c r="G171" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('170','q227', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('170','q226', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="25.5">
@@ -9958,7 +10038,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C172" s="118" t="s">
         <v>349</v>
@@ -9971,7 +10051,7 @@
       </c>
       <c r="G172" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('171','q227', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('171','q226', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="25.5">
@@ -9979,7 +10059,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C173" s="118" t="s">
         <v>77</v>
@@ -9992,7 +10072,7 @@
       </c>
       <c r="G173" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('172','q227', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('172','q226', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="25.5">
@@ -10000,7 +10080,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C174" s="118" t="s">
         <v>85</v>
@@ -10013,7 +10093,7 @@
       </c>
       <c r="G174" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('173','q227', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('173','q226', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="25.5">
@@ -10021,7 +10101,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C175" s="118" t="s">
         <v>81</v>
@@ -10034,7 +10114,7 @@
       </c>
       <c r="G175" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('174','q228', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('174','q227', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="25.5">
@@ -10042,7 +10122,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C176" s="118" t="s">
         <v>347</v>
@@ -10055,7 +10135,7 @@
       </c>
       <c r="G176" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('175','q228', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('175','q227', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="25.5">
@@ -10063,7 +10143,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C177" s="118" t="s">
         <v>349</v>
@@ -10076,7 +10156,7 @@
       </c>
       <c r="G177" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('176','q228', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('176','q227', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="25.5">
@@ -10084,7 +10164,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C178" s="118" t="s">
         <v>77</v>
@@ -10097,7 +10177,7 @@
       </c>
       <c r="G178" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('177','q228', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('177','q227', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="25.5">
@@ -10105,7 +10185,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C179" s="118" t="s">
         <v>85</v>
@@ -10118,7 +10198,7 @@
       </c>
       <c r="G179" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('178','q228', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('178','q227', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="25.5">
@@ -10126,7 +10206,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C180" s="118" t="s">
         <v>81</v>
@@ -10139,7 +10219,7 @@
       </c>
       <c r="G180" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('179','q229', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('179','q228', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="25.5">
@@ -10147,7 +10227,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C181" s="118" t="s">
         <v>347</v>
@@ -10160,7 +10240,7 @@
       </c>
       <c r="G181" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('180','q229', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('180','q228', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="25.5">
@@ -10168,7 +10248,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C182" s="118" t="s">
         <v>349</v>
@@ -10181,7 +10261,7 @@
       </c>
       <c r="G182" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('181','q229', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('181','q228', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="25.5">
@@ -10189,7 +10269,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C183" s="118" t="s">
         <v>77</v>
@@ -10202,7 +10282,7 @@
       </c>
       <c r="G183" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('182','q229', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('182','q228', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="25.5">
@@ -10210,7 +10290,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C184" s="118" t="s">
         <v>85</v>
@@ -10223,7 +10303,7 @@
       </c>
       <c r="G184" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('183','q229', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('183','q228', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="25.5">
@@ -10231,7 +10311,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C185" s="118" t="s">
         <v>81</v>
@@ -10244,7 +10324,7 @@
       </c>
       <c r="G185" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('184','q230', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('184','q229', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="25.5">
@@ -10252,7 +10332,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C186" s="118" t="s">
         <v>347</v>
@@ -10265,7 +10345,7 @@
       </c>
       <c r="G186" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('185','q230', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('185','q229', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="25.5">
@@ -10273,7 +10353,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C187" s="118" t="s">
         <v>349</v>
@@ -10286,7 +10366,7 @@
       </c>
       <c r="G187" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('186','q230', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('186','q229', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="25.5">
@@ -10294,7 +10374,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C188" s="118" t="s">
         <v>77</v>
@@ -10307,7 +10387,7 @@
       </c>
       <c r="G188" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('187','q230', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('187','q229', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="25.5">
@@ -10315,7 +10395,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C189" s="118" t="s">
         <v>85</v>
@@ -10328,7 +10408,7 @@
       </c>
       <c r="G189" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('188','q230', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('188','q229', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="25.5">
@@ -10336,7 +10416,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="116" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C190" s="118" t="s">
         <v>81</v>
@@ -10349,7 +10429,7 @@
       </c>
       <c r="G190" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('189','q231', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('189','q230', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="25.5">
@@ -10357,7 +10437,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="116" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C191" s="118" t="s">
         <v>347</v>
@@ -10370,7 +10450,7 @@
       </c>
       <c r="G191" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('190','q231', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('190','q230', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="25.5">
@@ -10378,7 +10458,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="116" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C192" s="118" t="s">
         <v>349</v>
@@ -10391,7 +10471,7 @@
       </c>
       <c r="G192" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('191','q231', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('191','q230', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="25.5">
@@ -10399,7 +10479,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="116" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C193" s="118" t="s">
         <v>77</v>
@@ -10412,7 +10492,7 @@
       </c>
       <c r="G193" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('192','q231', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('192','q230', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="25.5">
@@ -10420,7 +10500,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="116" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C194" s="118" t="s">
         <v>85</v>
@@ -10433,7 +10513,7 @@
       </c>
       <c r="G194" s="125" t="str">
         <f t="shared" si="2"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('193','q231', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('193','q230', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="25.5">
@@ -10441,7 +10521,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="116" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C195" s="118" t="s">
         <v>81</v>
@@ -10453,8 +10533,8 @@
         <v>1</v>
       </c>
       <c r="G195" s="125" t="str">
-        <f t="shared" ref="G195:G236" si="3">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A195&amp;"','" &amp;B195&amp;"', '" &amp;D195&amp;"','" &amp;C195&amp;"','" &amp;E195&amp;"','"&amp;F195&amp;"');"</f>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('194','q232', '1.AGREE','1.GKgZ','1','');</v>
+        <f t="shared" ref="G195:G241" si="3">"insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('" &amp;A195&amp;"','" &amp;B195&amp;"', '" &amp;D195&amp;"','" &amp;C195&amp;"','" &amp;E195&amp;"','"&amp;F195&amp;"');"</f>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('194','q231', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="25.5">
@@ -10462,7 +10542,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="116" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C196" s="118" t="s">
         <v>347</v>
@@ -10475,7 +10555,7 @@
       </c>
       <c r="G196" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('195','q232', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('195','q231', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="25.5">
@@ -10483,7 +10563,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="116" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C197" s="118" t="s">
         <v>349</v>
@@ -10496,7 +10576,7 @@
       </c>
       <c r="G197" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('196','q232', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('196','q231', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="25.5">
@@ -10504,7 +10584,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="116" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C198" s="118" t="s">
         <v>77</v>
@@ -10517,7 +10597,7 @@
       </c>
       <c r="G198" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('197','q232', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('197','q231', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="25.5">
@@ -10525,7 +10605,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="116" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C199" s="118" t="s">
         <v>85</v>
@@ -10538,7 +10618,7 @@
       </c>
       <c r="G199" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('198','q232', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('198','q231', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="25.5">
@@ -10546,7 +10626,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C200" s="118" t="s">
         <v>81</v>
@@ -10557,10 +10637,9 @@
       <c r="E200" s="119">
         <v>1</v>
       </c>
-      <c r="F200" s="3"/>
       <c r="G200" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('199','q233', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('199','q232', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="25.5">
@@ -10568,7 +10647,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C201" s="118" t="s">
         <v>347</v>
@@ -10579,10 +10658,9 @@
       <c r="E201" s="119">
         <v>2</v>
       </c>
-      <c r="F201" s="9"/>
       <c r="G201" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('200','q233', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('200','q232', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="25.5">
@@ -10590,7 +10668,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C202" s="118" t="s">
         <v>349</v>
@@ -10601,10 +10679,9 @@
       <c r="E202" s="119">
         <v>3</v>
       </c>
-      <c r="F202" s="9"/>
       <c r="G202" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('201','q233', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('201','q232', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="25.5">
@@ -10612,7 +10689,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C203" s="118" t="s">
         <v>77</v>
@@ -10623,10 +10700,9 @@
       <c r="E203" s="119">
         <v>8</v>
       </c>
-      <c r="F203" s="9"/>
       <c r="G203" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('202','q233', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('202','q232', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="25.5">
@@ -10634,7 +10710,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C204" s="118" t="s">
         <v>85</v>
@@ -10647,7 +10723,7 @@
       </c>
       <c r="G204" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('203','q233', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('203','q232', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="25.5">
@@ -10655,7 +10731,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="116" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C205" s="118" t="s">
         <v>81</v>
@@ -10666,10 +10742,10 @@
       <c r="E205" s="119">
         <v>1</v>
       </c>
-      <c r="F205" s="8"/>
+      <c r="F205" s="3"/>
       <c r="G205" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('204','q234', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('204','q233', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="25.5">
@@ -10677,7 +10753,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="116" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C206" s="118" t="s">
         <v>347</v>
@@ -10688,9 +10764,10 @@
       <c r="E206" s="119">
         <v>2</v>
       </c>
+      <c r="F206" s="9"/>
       <c r="G206" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('205','q234', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('205','q233', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="25.5">
@@ -10698,7 +10775,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="116" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C207" s="118" t="s">
         <v>349</v>
@@ -10709,10 +10786,10 @@
       <c r="E207" s="119">
         <v>3</v>
       </c>
-      <c r="F207" s="8"/>
+      <c r="F207" s="9"/>
       <c r="G207" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('206','q234', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('206','q233', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="25.5">
@@ -10720,7 +10797,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="116" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C208" s="118" t="s">
         <v>77</v>
@@ -10731,10 +10808,10 @@
       <c r="E208" s="119">
         <v>8</v>
       </c>
-      <c r="F208" s="8"/>
+      <c r="F208" s="9"/>
       <c r="G208" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('207','q234', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('207','q233', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="25.5">
@@ -10742,7 +10819,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="116" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C209" s="118" t="s">
         <v>85</v>
@@ -10755,7 +10832,7 @@
       </c>
       <c r="G209" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('208','q234', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('208','q233', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="25.5">
@@ -10763,7 +10840,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="116" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C210" s="118" t="s">
         <v>81</v>
@@ -10774,9 +10851,10 @@
       <c r="E210" s="119">
         <v>1</v>
       </c>
+      <c r="F210" s="8"/>
       <c r="G210" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('209','q235', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('209','q234', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="25.5">
@@ -10784,7 +10862,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="116" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C211" s="118" t="s">
         <v>347</v>
@@ -10797,7 +10875,7 @@
       </c>
       <c r="G211" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('210','q235', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('210','q234', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="25.5">
@@ -10805,7 +10883,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="116" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C212" s="118" t="s">
         <v>349</v>
@@ -10816,9 +10894,10 @@
       <c r="E212" s="119">
         <v>3</v>
       </c>
+      <c r="F212" s="8"/>
       <c r="G212" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('211','q235', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('211','q234', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="25.5">
@@ -10826,7 +10905,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="116" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C213" s="118" t="s">
         <v>77</v>
@@ -10837,9 +10916,10 @@
       <c r="E213" s="119">
         <v>8</v>
       </c>
+      <c r="F213" s="8"/>
       <c r="G213" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('212','q235', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('212','q234', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="25.5">
@@ -10847,7 +10927,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="116" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C214" s="118" t="s">
         <v>85</v>
@@ -10860,7 +10940,7 @@
       </c>
       <c r="G214" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('213','q235', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('213','q234', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="25.5">
@@ -10868,7 +10948,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="116" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C215" s="118" t="s">
         <v>81</v>
@@ -10881,7 +10961,7 @@
       </c>
       <c r="G215" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('214','q236', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('214','q235', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="25.5">
@@ -10889,7 +10969,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="116" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C216" s="118" t="s">
         <v>347</v>
@@ -10902,7 +10982,7 @@
       </c>
       <c r="G216" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('215','q236', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('215','q235', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="25.5">
@@ -10910,7 +10990,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="116" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C217" s="118" t="s">
         <v>349</v>
@@ -10923,7 +11003,7 @@
       </c>
       <c r="G217" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('216','q236', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('216','q235', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="25.5">
@@ -10931,7 +11011,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="116" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C218" s="118" t="s">
         <v>77</v>
@@ -10944,7 +11024,7 @@
       </c>
       <c r="G218" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('217','q236', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('217','q235', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="25.5">
@@ -10952,7 +11032,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="116" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C219" s="118" t="s">
         <v>85</v>
@@ -10965,7 +11045,7 @@
       </c>
       <c r="G219" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('218','q236', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('218','q235', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="25.5">
@@ -10973,7 +11053,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="116" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C220" s="118" t="s">
         <v>81</v>
@@ -10986,7 +11066,7 @@
       </c>
       <c r="G220" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('219','q237', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('219','q236', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="25.5">
@@ -10994,7 +11074,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="116" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C221" s="118" t="s">
         <v>347</v>
@@ -11007,7 +11087,7 @@
       </c>
       <c r="G221" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('220','q237', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('220','q236', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="25.5">
@@ -11015,7 +11095,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="116" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C222" s="118" t="s">
         <v>349</v>
@@ -11028,7 +11108,7 @@
       </c>
       <c r="G222" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('221','q237', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('221','q236', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="25.5">
@@ -11036,7 +11116,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="116" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C223" s="118" t="s">
         <v>77</v>
@@ -11049,7 +11129,7 @@
       </c>
       <c r="G223" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('222','q237', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('222','q236', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="25.5">
@@ -11057,7 +11137,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="116" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C224" s="118" t="s">
         <v>85</v>
@@ -11070,7 +11150,7 @@
       </c>
       <c r="G224" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('223','q237', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('223','q236', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="25.5">
@@ -11078,7 +11158,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="116" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C225" s="118" t="s">
         <v>81</v>
@@ -11091,7 +11171,7 @@
       </c>
       <c r="G225" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('224','q238', '1.AGREE','1.GKgZ','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('224','q237', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="25.5">
@@ -11099,7 +11179,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="116" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C226" s="118" t="s">
         <v>347</v>
@@ -11112,7 +11192,7 @@
       </c>
       <c r="G226" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('225','q238', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('225','q237', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="25.5">
@@ -11120,7 +11200,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="116" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C227" s="118" t="s">
         <v>349</v>
@@ -11133,7 +11213,7 @@
       </c>
       <c r="G227" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('226','q238', '3.DISAGREE','3.GKgZ bq','3','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('226','q237', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="25.5">
@@ -11141,7 +11221,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="116" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C228" s="118" t="s">
         <v>77</v>
@@ -11154,7 +11234,7 @@
       </c>
       <c r="G228" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('227','q238', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('227','q237', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="25.5">
@@ -11162,7 +11242,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="116" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C229" s="118" t="s">
         <v>85</v>
@@ -11175,7 +11255,7 @@
       </c>
       <c r="G229" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('228','q238', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('228','q237', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="25.5">
@@ -11183,20 +11263,20 @@
         <v>229</v>
       </c>
       <c r="B230" s="116" t="s">
-        <v>353</v>
-      </c>
-      <c r="C230" s="122" t="s">
-        <v>90</v>
-      </c>
-      <c r="D230" s="121" t="s">
-        <v>86</v>
-      </c>
-      <c r="E230" s="129">
-        <v>0</v>
+        <v>344</v>
+      </c>
+      <c r="C230" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="D230" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="E230" s="119">
+        <v>1</v>
       </c>
       <c r="G230" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('229','q239_4', 'd) He mistreats her','N.Zvi ¯^vgx Lvivc AvPib K‡i','0','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('229','q238', '1.AGREE','1.GKgZ','1','');</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="25.5">
@@ -11204,20 +11284,20 @@
         <v>230</v>
       </c>
       <c r="B231" s="116" t="s">
-        <v>354</v>
-      </c>
-      <c r="C231" s="122" t="s">
-        <v>91</v>
-      </c>
-      <c r="D231" s="121" t="s">
-        <v>87</v>
-      </c>
-      <c r="E231" s="129">
-        <v>0</v>
+        <v>344</v>
+      </c>
+      <c r="C231" s="118" t="s">
+        <v>347</v>
+      </c>
+      <c r="D231" s="117" t="s">
+        <v>348</v>
+      </c>
+      <c r="E231" s="119">
+        <v>2</v>
       </c>
       <c r="G231" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('230','q239_3', 'c) She is sick','M.¯¿x Amy¯’ _v‡K','0','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('230','q238', '2.PARTIALLY AGREE','2.wKQzUv GKgZ','2','');</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="25.5">
@@ -11225,20 +11305,20 @@
         <v>231</v>
       </c>
       <c r="B232" s="116" t="s">
-        <v>355</v>
-      </c>
-      <c r="C232" s="122" t="s">
-        <v>92</v>
-      </c>
-      <c r="D232" s="121" t="s">
-        <v>88</v>
-      </c>
-      <c r="E232" s="129">
-        <v>0</v>
+        <v>344</v>
+      </c>
+      <c r="C232" s="118" t="s">
+        <v>349</v>
+      </c>
+      <c r="D232" s="117" t="s">
+        <v>350</v>
+      </c>
+      <c r="E232" s="119">
+        <v>3</v>
       </c>
       <c r="G232" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('231','q239_2', 'b) He is drunk','L.Zvi ¯^vgx gvZvj Ae¯’vq _v‡K','0','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('231','q238', '3.DISAGREE','3.GKgZ bq','3','');</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="25.5">
@@ -11246,20 +11326,20 @@
         <v>232</v>
       </c>
       <c r="B233" s="116" t="s">
-        <v>356</v>
-      </c>
-      <c r="C233" s="122" t="s">
-        <v>93</v>
-      </c>
-      <c r="D233" s="121" t="s">
-        <v>89</v>
-      </c>
-      <c r="E233" s="129">
-        <v>0</v>
+        <v>344</v>
+      </c>
+      <c r="C233" s="118" t="s">
+        <v>77</v>
+      </c>
+      <c r="D233" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="E233" s="119">
+        <v>8</v>
       </c>
       <c r="G233" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('232','q239_1', 'a) She doesn’t want to','K.¯¿xi B”Qv bv _v‡K','0','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('232','q238', '8.DON’T KNOW/DON’T REMEMBER','8.Rvwbbv/g‡b ‡bB','8','');</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="25.5">
@@ -11267,160 +11347,240 @@
         <v>233</v>
       </c>
       <c r="B234" s="116" t="s">
-        <v>357</v>
-      </c>
-      <c r="C234" s="128" t="s">
-        <v>47</v>
-      </c>
-      <c r="D234" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="E234" s="129">
-        <v>1</v>
+        <v>344</v>
+      </c>
+      <c r="C234" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="D234" s="116" t="s">
+        <v>75</v>
+      </c>
+      <c r="E234" s="119">
+        <v>9</v>
       </c>
       <c r="G234" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('233','q239_Options', '1.YES ','1.nu¨v','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('233','q238', '9.REFUSED/NO ANSWER','9.cÖZ¨vLvb Kiv/‡Kvb DËi bvB','9','');</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="25.5">
       <c r="A235" s="38">
         <v>234</v>
       </c>
-      <c r="B235" s="121" t="s">
-        <v>357</v>
-      </c>
-      <c r="C235" s="124" t="s">
-        <v>48</v>
-      </c>
-      <c r="D235" s="123" t="s">
-        <v>50</v>
+      <c r="B235" s="116" t="s">
+        <v>353</v>
+      </c>
+      <c r="C235" s="122" t="s">
+        <v>90</v>
+      </c>
+      <c r="D235" s="121" t="s">
+        <v>86</v>
       </c>
       <c r="E235" s="129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G235" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('234','q239_Options', '2.NO','2.bv','2','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('234','q239_4', 'd) He mistreats her','N.Zvi ¯^vgx Lvivc AvPib K‡i','0','');</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="25.5">
       <c r="A236" s="38">
         <v>235</v>
       </c>
-      <c r="B236" s="121" t="s">
-        <v>357</v>
-      </c>
-      <c r="C236" s="124" t="s">
-        <v>76</v>
-      </c>
-      <c r="D236" s="123" t="s">
-        <v>78</v>
+      <c r="B236" s="116" t="s">
+        <v>354</v>
+      </c>
+      <c r="C236" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="D236" s="121" t="s">
+        <v>87</v>
       </c>
       <c r="E236" s="129">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G236" s="125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('235','q239_Options', '8.DK','8.Rvwbbv','8','');</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="15">
-      <c r="C237"/>
-      <c r="D237"/>
-      <c r="G237"/>
-    </row>
-    <row r="238" spans="1:7" ht="15">
-      <c r="C238"/>
-      <c r="D238"/>
-      <c r="G238"/>
-    </row>
-    <row r="239" spans="1:7" ht="15">
-      <c r="C239"/>
-      <c r="D239"/>
-      <c r="G239"/>
-    </row>
-    <row r="240" spans="1:7" ht="15">
-      <c r="C240"/>
-      <c r="D240"/>
-      <c r="G240"/>
-    </row>
-    <row r="241" spans="3:7" ht="15">
-      <c r="C241"/>
-      <c r="D241"/>
-      <c r="G241"/>
-    </row>
-    <row r="242" spans="3:7" ht="15">
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('235','q239_3', 'c) She is sick','M.¯¿x Amy¯’ _v‡K','0','');</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="25.5">
+      <c r="A237" s="38">
+        <v>236</v>
+      </c>
+      <c r="B237" s="116" t="s">
+        <v>355</v>
+      </c>
+      <c r="C237" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="D237" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="E237" s="129">
+        <v>0</v>
+      </c>
+      <c r="G237" s="125" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('236','q239_2', 'b) He is drunk','L.Zvi ¯^vgx gvZvj Ae¯’vq _v‡K','0','');</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="25.5">
+      <c r="A238" s="38">
+        <v>237</v>
+      </c>
+      <c r="B238" s="116" t="s">
+        <v>356</v>
+      </c>
+      <c r="C238" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="D238" s="121" t="s">
+        <v>89</v>
+      </c>
+      <c r="E238" s="129">
+        <v>0</v>
+      </c>
+      <c r="G238" s="125" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('237','q239_1', 'a) She doesn’t want to','K.¯¿xi B”Qv bv _v‡K','0','');</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="25.5">
+      <c r="A239" s="38">
+        <v>238</v>
+      </c>
+      <c r="B239" s="116" t="s">
+        <v>357</v>
+      </c>
+      <c r="C239" s="128" t="s">
+        <v>47</v>
+      </c>
+      <c r="D239" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="E239" s="129">
+        <v>1</v>
+      </c>
+      <c r="G239" s="125" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('238','q239_Options', '1.YES ','1.nu¨v','1','');</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="25.5">
+      <c r="A240" s="38">
+        <v>239</v>
+      </c>
+      <c r="B240" s="121" t="s">
+        <v>357</v>
+      </c>
+      <c r="C240" s="124" t="s">
+        <v>48</v>
+      </c>
+      <c r="D240" s="123" t="s">
+        <v>50</v>
+      </c>
+      <c r="E240" s="129">
+        <v>2</v>
+      </c>
+      <c r="G240" s="125" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('239','q239_Options', '2.NO','2.bv','2','');</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="25.5">
+      <c r="A241" s="38">
+        <v>240</v>
+      </c>
+      <c r="B241" s="121" t="s">
+        <v>357</v>
+      </c>
+      <c r="C241" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="D241" s="123" t="s">
+        <v>78</v>
+      </c>
+      <c r="E241" s="129">
+        <v>8</v>
+      </c>
+      <c r="G241" s="125" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('240','q239_Options', '8.DK','8.Rvwbbv','8','');</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="15">
       <c r="C242"/>
       <c r="D242"/>
       <c r="G242"/>
     </row>
-    <row r="243" spans="3:7" ht="15">
+    <row r="243" spans="1:7" ht="15">
       <c r="C243"/>
       <c r="D243"/>
       <c r="G243"/>
     </row>
-    <row r="244" spans="3:7" ht="15">
+    <row r="244" spans="1:7" ht="15">
       <c r="C244"/>
       <c r="D244"/>
       <c r="G244"/>
     </row>
-    <row r="245" spans="3:7" ht="15">
+    <row r="245" spans="1:7" ht="15">
       <c r="C245"/>
       <c r="D245"/>
       <c r="G245"/>
     </row>
-    <row r="246" spans="3:7" ht="15">
+    <row r="246" spans="1:7" ht="15">
       <c r="C246"/>
       <c r="D246"/>
       <c r="G246"/>
     </row>
-    <row r="247" spans="3:7" ht="15">
+    <row r="247" spans="1:7" ht="15">
       <c r="C247"/>
       <c r="D247"/>
       <c r="G247"/>
     </row>
-    <row r="248" spans="3:7" ht="15">
+    <row r="248" spans="1:7" ht="15">
       <c r="C248"/>
       <c r="D248"/>
       <c r="G248"/>
     </row>
-    <row r="249" spans="3:7" ht="15">
+    <row r="249" spans="1:7" ht="15">
       <c r="C249"/>
       <c r="D249"/>
       <c r="G249"/>
     </row>
-    <row r="250" spans="3:7" ht="15">
+    <row r="250" spans="1:7" ht="15">
       <c r="C250"/>
       <c r="D250"/>
       <c r="G250"/>
     </row>
-    <row r="251" spans="3:7" ht="15">
+    <row r="251" spans="1:7" ht="15">
       <c r="C251"/>
       <c r="D251"/>
       <c r="G251"/>
     </row>
-    <row r="252" spans="3:7" ht="15">
+    <row r="252" spans="1:7" ht="15">
       <c r="C252"/>
       <c r="D252"/>
       <c r="G252"/>
     </row>
-    <row r="253" spans="3:7" ht="15">
+    <row r="253" spans="1:7" ht="15">
       <c r="C253"/>
       <c r="D253"/>
       <c r="G253"/>
     </row>
-    <row r="254" spans="3:7" ht="15">
+    <row r="254" spans="1:7" ht="15">
       <c r="C254"/>
       <c r="D254"/>
       <c r="G254"/>
     </row>
-    <row r="255" spans="3:7" ht="15">
+    <row r="255" spans="1:7" ht="15">
       <c r="C255"/>
       <c r="D255"/>
       <c r="G255"/>
     </row>
-    <row r="256" spans="3:7" ht="15">
+    <row r="256" spans="1:7" ht="15">
       <c r="C256"/>
       <c r="D256"/>
       <c r="G256"/>
@@ -14665,7 +14825,7 @@
       <c r="D904"/>
       <c r="G904"/>
     </row>
-    <row r="905" spans="3:7" ht="33" customHeight="1">
+    <row r="905" spans="3:7" ht="15">
       <c r="C905"/>
       <c r="D905"/>
       <c r="G905"/>
@@ -14690,7 +14850,7 @@
       <c r="D909"/>
       <c r="G909"/>
     </row>
-    <row r="910" spans="3:7" ht="15">
+    <row r="910" spans="3:7" ht="33" customHeight="1">
       <c r="C910"/>
       <c r="D910"/>
       <c r="G910"/>
@@ -16669,6 +16829,31 @@
       <c r="C1305"/>
       <c r="D1305"/>
       <c r="G1305"/>
+    </row>
+    <row r="1306" spans="3:7" ht="15">
+      <c r="C1306"/>
+      <c r="D1306"/>
+      <c r="G1306"/>
+    </row>
+    <row r="1307" spans="3:7" ht="15">
+      <c r="C1307"/>
+      <c r="D1307"/>
+      <c r="G1307"/>
+    </row>
+    <row r="1308" spans="3:7" ht="15">
+      <c r="C1308"/>
+      <c r="D1308"/>
+      <c r="G1308"/>
+    </row>
+    <row r="1309" spans="3:7" ht="15">
+      <c r="C1309"/>
+      <c r="D1309"/>
+      <c r="G1309"/>
+    </row>
+    <row r="1310" spans="3:7" ht="15">
+      <c r="C1310"/>
+      <c r="D1310"/>
+      <c r="G1310"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
